--- a/Mappe1.xlsx
+++ b/Mappe1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\EmbeddedHM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{13E36D88-8359-4778-A373-D105E4CDAECB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="28515" windowHeight="14370"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="28513" windowHeight="14373" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,8 +25,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="a" type="6" refreshedVersion="4" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="a" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="850" sourceFile="\\nas.ads.mwn.de\hm-tobusch\Benutzer\Desktop\a.csv" decimal="," thousands="." tab="0" semicolon="1">
       <textFields count="2">
         <textField/>
@@ -43,7 +49,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -77,7 +83,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -85,14 +91,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -123,7 +132,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -136,7 +144,7 @@
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Time Slept(µs)</c:v>
+            <c:v>Time Slept(ns)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln>
@@ -6161,6 +6169,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EBB1-4A8A-A498-C4BE849E5E75}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6170,7 +6183,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="168456576"/>
         <c:axId val="168458496"/>
@@ -6193,12 +6205,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>System Tick (µs)</a:t>
+                  <a:t>System Tick (ns)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -6231,12 +6242,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Time Slept (µs)</a:t>
+                  <a:t>Time Slept (ns)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -6250,7 +6260,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6266,9 +6275,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6299,7 +6308,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6312,7 +6320,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Time Slept(µs)</c:v>
+            <c:v>Time Slept(ns)</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -6930,6 +6938,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-595B-4F0A-BF76-3771E37E0648}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6939,7 +6952,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="167867904"/>
         <c:axId val="167869824"/>
@@ -6962,12 +6974,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>System Tick (µs)</a:t>
+                  <a:t>System Tick (ns)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -7000,12 +7011,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Time Slept (µs)</a:t>
+                  <a:t>Time Slept (ns)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -7019,7 +7029,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7051,7 +7060,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7081,7 +7096,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -7102,13 +7123,13 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="a_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="a_1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7146,9 +7167,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7181,9 +7202,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7216,9 +7254,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7391,22 +7446,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E36" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.29296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1171875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.41015625" customWidth="1"/>
+    <col min="5" max="5" width="15.1171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7414,7 +7469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1002563</v>
       </c>
@@ -7422,7 +7477,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>1076938</v>
       </c>
@@ -7430,7 +7485,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>1002063</v>
       </c>
@@ -7438,7 +7493,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>1028188</v>
       </c>
@@ -7446,7 +7501,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>1004563</v>
       </c>
@@ -7454,7 +7509,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>1051979</v>
       </c>
@@ -7462,7 +7517,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>1007313</v>
       </c>
@@ -7470,7 +7525,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>1045771</v>
       </c>
@@ -7478,7 +7533,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>1079854</v>
       </c>
@@ -7486,7 +7541,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>1082604</v>
       </c>
@@ -7494,7 +7549,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>1077021</v>
       </c>
@@ -7502,7 +7557,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>1041646</v>
       </c>
@@ -7510,7 +7565,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>1123979</v>
       </c>
@@ -7518,7 +7573,7 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>1058813</v>
       </c>
@@ -7526,7 +7581,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>1145479</v>
       </c>
@@ -7534,7 +7589,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>1046854</v>
       </c>
@@ -7542,7 +7597,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>1110146</v>
       </c>
@@ -7550,7 +7605,7 @@
         <v>170000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>1162646</v>
       </c>
@@ -7558,7 +7613,7 @@
         <v>180000</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>1039604</v>
       </c>
@@ -7566,7 +7621,7 @@
         <v>190000</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>1082354</v>
       </c>
@@ -7574,7 +7629,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>1138771</v>
       </c>
@@ -7582,7 +7637,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>1181188</v>
       </c>
@@ -7590,7 +7645,7 @@
         <v>220000</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>1003438</v>
       </c>
@@ -7598,7 +7653,7 @@
         <v>230000</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>1037479</v>
       </c>
@@ -7606,7 +7661,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A26">
         <v>1086188</v>
       </c>
@@ -7614,7 +7669,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A27">
         <v>1120813</v>
       </c>
@@ -7622,7 +7677,7 @@
         <v>260000</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A28">
         <v>1164646</v>
       </c>
@@ -7630,7 +7685,7 @@
         <v>270000</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A29">
         <v>1207354</v>
       </c>
@@ -7638,7 +7693,7 @@
         <v>280000</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A30">
         <v>1251771</v>
       </c>
@@ -7646,7 +7701,7 @@
         <v>290000</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A31">
         <v>1286521</v>
       </c>
@@ -7654,7 +7709,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A32">
         <v>1019729</v>
       </c>
@@ -7662,7 +7717,7 @@
         <v>310000</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A33">
         <v>1044104</v>
       </c>
@@ -7670,7 +7725,7 @@
         <v>320000</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A34">
         <v>1078729</v>
       </c>
@@ -7678,7 +7733,7 @@
         <v>330000</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A35">
         <v>1102938</v>
       </c>
@@ -7686,7 +7741,7 @@
         <v>340000</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A36">
         <v>1136688</v>
       </c>
@@ -7694,7 +7749,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A37">
         <v>1158271</v>
       </c>
@@ -7702,7 +7757,7 @@
         <v>360000</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A38">
         <v>1201188</v>
       </c>
@@ -7710,7 +7765,7 @@
         <v>370000</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A39">
         <v>1223354</v>
       </c>
@@ -7718,7 +7773,7 @@
         <v>380000</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A40">
         <v>1258813</v>
       </c>
@@ -7726,7 +7781,7 @@
         <v>390000</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A41">
         <v>1281188</v>
       </c>
@@ -7734,7 +7789,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A42">
         <v>1317896</v>
       </c>
@@ -7742,7 +7797,7 @@
         <v>410000</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A43">
         <v>1340438</v>
       </c>
@@ -7750,7 +7805,7 @@
         <v>420000</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A44">
         <v>1376729</v>
       </c>
@@ -7758,7 +7813,7 @@
         <v>430000</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A45">
         <v>1400021</v>
       </c>
@@ -7766,7 +7821,7 @@
         <v>440000</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A46">
         <v>1439354</v>
       </c>
@@ -7774,7 +7829,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A47">
         <v>1459854</v>
       </c>
@@ -7782,7 +7837,7 @@
         <v>460000</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A48">
         <v>1027104</v>
       </c>
@@ -7790,7 +7845,7 @@
         <v>470000</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A49">
         <v>1060688</v>
       </c>
@@ -7798,7 +7853,7 @@
         <v>480000</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A50">
         <v>1076896</v>
       </c>
@@ -7806,7 +7861,7 @@
         <v>490000</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A51">
         <v>1080979</v>
       </c>
@@ -7814,7 +7869,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A52">
         <v>1107646</v>
       </c>
@@ -7822,7 +7877,7 @@
         <v>510000</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A53">
         <v>1122021</v>
       </c>
@@ -7830,7 +7885,7 @@
         <v>520000</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A54">
         <v>1147604</v>
       </c>
@@ -7838,7 +7893,7 @@
         <v>530000</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A55">
         <v>1159396</v>
       </c>
@@ -7846,7 +7901,7 @@
         <v>540000</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A56">
         <v>1190563</v>
       </c>
@@ -7854,7 +7909,7 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A57">
         <v>1201271</v>
       </c>
@@ -7862,7 +7917,7 @@
         <v>560000</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A58">
         <v>1224104</v>
       </c>
@@ -7870,7 +7925,7 @@
         <v>570000</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A59">
         <v>1242271</v>
       </c>
@@ -7878,7 +7933,7 @@
         <v>580000</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A60">
         <v>1265896</v>
       </c>
@@ -7886,7 +7941,7 @@
         <v>590000</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A61">
         <v>1281396</v>
       </c>
@@ -7894,7 +7949,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A62">
         <v>1309313</v>
       </c>
@@ -7902,7 +7957,7 @@
         <v>610000</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A63">
         <v>1323063</v>
       </c>
@@ -7910,7 +7965,7 @@
         <v>620000</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A64">
         <v>1347021</v>
       </c>
@@ -7918,7 +7973,7 @@
         <v>630000</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A65">
         <v>1360479</v>
       </c>
@@ -7926,7 +7981,7 @@
         <v>640000</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A66">
         <v>1386896</v>
       </c>
@@ -7934,7 +7989,7 @@
         <v>650000</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A67">
         <v>1401354</v>
       </c>
@@ -7942,7 +7997,7 @@
         <v>660000</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A68">
         <v>1428604</v>
       </c>
@@ -7950,7 +8005,7 @@
         <v>670000</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A69">
         <v>1440104</v>
       </c>
@@ -7958,7 +8013,7 @@
         <v>680000</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A70">
         <v>1464646</v>
       </c>
@@ -7966,7 +8021,7 @@
         <v>690000</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A71">
         <v>1480604</v>
       </c>
@@ -7974,7 +8029,7 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A72">
         <v>1505396</v>
       </c>
@@ -7982,7 +8037,7 @@
         <v>710000</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A73">
         <v>1518063</v>
       </c>
@@ -7990,7 +8045,7 @@
         <v>720000</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A74">
         <v>1547271</v>
       </c>
@@ -7998,7 +8053,7 @@
         <v>730000</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A75">
         <v>1562229</v>
       </c>
@@ -8006,7 +8061,7 @@
         <v>740000</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A76">
         <v>1584021</v>
       </c>
@@ -8014,7 +8069,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A77">
         <v>1601271</v>
       </c>
@@ -8022,7 +8077,7 @@
         <v>760000</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A78">
         <v>1623729</v>
       </c>
@@ -8030,7 +8085,7 @@
         <v>770000</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A79">
         <v>1640688</v>
       </c>
@@ -8038,7 +8093,7 @@
         <v>780000</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A80">
         <v>1665354</v>
       </c>
@@ -8046,7 +8101,7 @@
         <v>790000</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A81">
         <v>1682813</v>
       </c>
@@ -8054,7 +8109,7 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A82">
         <v>1707479</v>
       </c>
@@ -8062,7 +8117,7 @@
         <v>810000</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A83">
         <v>1720854</v>
       </c>
@@ -8070,7 +8125,7 @@
         <v>820000</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A84">
         <v>1764146</v>
       </c>
@@ -8078,7 +8133,7 @@
         <v>830000</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A85">
         <v>1771688</v>
       </c>
@@ -8086,7 +8141,7 @@
         <v>840000</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A86">
         <v>1791479</v>
       </c>
@@ -8094,7 +8149,7 @@
         <v>850000</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A87">
         <v>1811563</v>
       </c>
@@ -8102,7 +8157,7 @@
         <v>860000</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A88">
         <v>1843521</v>
       </c>
@@ -8110,7 +8165,7 @@
         <v>870000</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A89">
         <v>1844438</v>
       </c>
@@ -8118,7 +8173,7 @@
         <v>880000</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A90">
         <v>1865563</v>
       </c>
@@ -8126,7 +8181,7 @@
         <v>890000</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A91">
         <v>1883354</v>
       </c>
@@ -8134,7 +8189,7 @@
         <v>900000</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A92">
         <v>1907688</v>
       </c>
@@ -8142,7 +8197,7 @@
         <v>910000</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A93">
         <v>1001979</v>
       </c>
@@ -8150,7 +8205,7 @@
         <v>920000</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A94">
         <v>1015771</v>
       </c>
@@ -8158,7 +8213,7 @@
         <v>930000</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A95">
         <v>1022229</v>
       </c>
@@ -8166,7 +8221,7 @@
         <v>940000</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A96">
         <v>1037854</v>
       </c>
@@ -8174,7 +8229,7 @@
         <v>950000</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A97">
         <v>1041771</v>
       </c>
@@ -8182,7 +8237,7 @@
         <v>960000</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A98">
         <v>1057313</v>
       </c>
@@ -8190,7 +8245,7 @@
         <v>970000</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A99">
         <v>1064354</v>
       </c>
@@ -8198,7 +8253,7 @@
         <v>980000</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A100">
         <v>1079854</v>
       </c>
@@ -8206,7 +8261,7 @@
         <v>990000</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A101">
         <v>1080188</v>
       </c>
@@ -8214,7 +8269,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A102">
         <v>1132979</v>
       </c>
@@ -8222,7 +8277,7 @@
         <v>1010000</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A103">
         <v>1107104</v>
       </c>
@@ -8230,7 +8285,7 @@
         <v>1020000</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A104">
         <v>1124104</v>
       </c>
@@ -8238,7 +8293,7 @@
         <v>1030000</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A105">
         <v>1122188</v>
       </c>
@@ -8246,7 +8301,7 @@
         <v>1040000</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A106">
         <v>1138271</v>
       </c>
@@ -8254,7 +8309,7 @@
         <v>1050000</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A107">
         <v>1142563</v>
       </c>
@@ -8262,7 +8317,7 @@
         <v>1060000</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A108">
         <v>1162438</v>
       </c>
@@ -8270,7 +8325,7 @@
         <v>1070000</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A109">
         <v>1164979</v>
       </c>
@@ -8278,7 +8333,7 @@
         <v>1080000</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A110">
         <v>1180771</v>
       </c>
@@ -8286,7 +8341,7 @@
         <v>1090000</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A111">
         <v>1190146</v>
       </c>
@@ -8294,7 +8349,7 @@
         <v>1100000</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A112">
         <v>1195313</v>
       </c>
@@ -8302,7 +8357,7 @@
         <v>1110000</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A113">
         <v>1205396</v>
       </c>
@@ -8310,7 +8365,7 @@
         <v>1120000</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A114">
         <v>1228104</v>
       </c>
@@ -8318,7 +8373,7 @@
         <v>1130000</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A115">
         <v>1228896</v>
       </c>
@@ -8326,7 +8381,7 @@
         <v>1140000</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A116">
         <v>1243979</v>
       </c>
@@ -8334,7 +8389,7 @@
         <v>1150000</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A117">
         <v>1244188</v>
       </c>
@@ -8342,7 +8397,7 @@
         <v>1160000</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A118">
         <v>1259438</v>
       </c>
@@ -8350,7 +8405,7 @@
         <v>1170000</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A119">
         <v>1264104</v>
       </c>
@@ -8358,7 +8413,7 @@
         <v>1180000</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A120">
         <v>1277021</v>
       </c>
@@ -8366,7 +8421,7 @@
         <v>1190000</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A121">
         <v>1281563</v>
       </c>
@@ -8374,7 +8429,7 @@
         <v>1200000</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A122">
         <v>1306021</v>
       </c>
@@ -8382,7 +8437,7 @@
         <v>1210000</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A123">
         <v>1313563</v>
       </c>
@@ -8390,7 +8445,7 @@
         <v>1220000</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A124">
         <v>1317354</v>
       </c>
@@ -8398,7 +8453,7 @@
         <v>1230000</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A125">
         <v>1320021</v>
       </c>
@@ -8406,7 +8461,7 @@
         <v>1240000</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A126">
         <v>1338813</v>
       </c>
@@ -8414,7 +8469,7 @@
         <v>1250000</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A127">
         <v>1342146</v>
       </c>
@@ -8422,7 +8477,7 @@
         <v>1260000</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A128">
         <v>1358604</v>
       </c>
@@ -8430,7 +8485,7 @@
         <v>1270000</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A129">
         <v>1365729</v>
       </c>
@@ -8438,7 +8493,7 @@
         <v>1280000</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A130">
         <v>1380938</v>
       </c>
@@ -8446,7 +8501,7 @@
         <v>1290000</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A131">
         <v>1386521</v>
       </c>
@@ -8454,7 +8509,7 @@
         <v>1300000</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A132">
         <v>1399313</v>
       </c>
@@ -8462,7 +8517,7 @@
         <v>1310000</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A133">
         <v>1404229</v>
       </c>
@@ -8470,7 +8525,7 @@
         <v>1320000</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A134">
         <v>1420354</v>
       </c>
@@ -8478,7 +8533,7 @@
         <v>1330000</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A135">
         <v>1423938</v>
       </c>
@@ -8486,7 +8541,7 @@
         <v>1340000</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A136">
         <v>1438104</v>
       </c>
@@ -8494,7 +8549,7 @@
         <v>1350000</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A137">
         <v>1442896</v>
       </c>
@@ -8502,7 +8557,7 @@
         <v>1360000</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A138">
         <v>1459354</v>
       </c>
@@ -8510,7 +8565,7 @@
         <v>1370000</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A139">
         <v>1463021</v>
       </c>
@@ -8518,7 +8573,7 @@
         <v>1380000</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A140">
         <v>1480813</v>
       </c>
@@ -8526,7 +8581,7 @@
         <v>1390000</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A141">
         <v>1484688</v>
       </c>
@@ -8534,7 +8589,7 @@
         <v>1400000</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A142">
         <v>1496771</v>
       </c>
@@ -8542,7 +8597,7 @@
         <v>1410000</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A143">
         <v>1504021</v>
       </c>
@@ -8550,7 +8605,7 @@
         <v>1420000</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A144">
         <v>1519229</v>
       </c>
@@ -8558,7 +8613,7 @@
         <v>1430000</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A145">
         <v>1523354</v>
       </c>
@@ -8566,7 +8621,7 @@
         <v>1440000</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A146">
         <v>1537104</v>
       </c>
@@ -8574,7 +8629,7 @@
         <v>1450000</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A147">
         <v>1539688</v>
       </c>
@@ -8582,7 +8637,7 @@
         <v>1460000</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A148">
         <v>1567979</v>
       </c>
@@ -8590,7 +8645,7 @@
         <v>1470000</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A149">
         <v>1564854</v>
       </c>
@@ -8598,7 +8653,7 @@
         <v>1480000</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A150">
         <v>1582146</v>
       </c>
@@ -8606,7 +8661,7 @@
         <v>1490000</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A151">
         <v>1584771</v>
       </c>
@@ -8614,7 +8669,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A152">
         <v>1601771</v>
       </c>
@@ -8622,7 +8677,7 @@
         <v>1510000</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A153">
         <v>1603313</v>
       </c>
@@ -8630,7 +8685,7 @@
         <v>1520000</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A154">
         <v>1618563</v>
       </c>
@@ -8638,7 +8693,7 @@
         <v>1530000</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A155">
         <v>1624813</v>
       </c>
@@ -8646,7 +8701,7 @@
         <v>1540000</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A156">
         <v>1646271</v>
       </c>
@@ -8654,7 +8709,7 @@
         <v>1550000</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A157">
         <v>1656563</v>
       </c>
@@ -8662,7 +8717,7 @@
         <v>1560000</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A158">
         <v>1656979</v>
       </c>
@@ -8670,7 +8725,7 @@
         <v>1570000</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A159">
         <v>1663938</v>
       </c>
@@ -8678,7 +8733,7 @@
         <v>1580000</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A160">
         <v>1682438</v>
       </c>
@@ -8686,7 +8741,7 @@
         <v>1590000</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A161">
         <v>1683313</v>
       </c>
@@ -8694,7 +8749,7 @@
         <v>1600000</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A162">
         <v>1697771</v>
       </c>
@@ -8702,7 +8757,7 @@
         <v>1610000</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A163">
         <v>1705854</v>
       </c>
@@ -8710,7 +8765,7 @@
         <v>1620000</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A164">
         <v>1720438</v>
       </c>
@@ -8718,7 +8773,7 @@
         <v>1630000</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A165">
         <v>1723188</v>
       </c>
@@ -8726,7 +8781,7 @@
         <v>1640000</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A166">
         <v>1740229</v>
       </c>
@@ -8734,7 +8789,7 @@
         <v>1650000</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A167">
         <v>1742063</v>
       </c>
@@ -8742,7 +8797,7 @@
         <v>1660000</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A168">
         <v>1759479</v>
       </c>
@@ -8750,7 +8805,7 @@
         <v>1670000</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A169">
         <v>1761521</v>
       </c>
@@ -8758,7 +8813,7 @@
         <v>1680000</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A170">
         <v>1778854</v>
       </c>
@@ -8766,7 +8821,7 @@
         <v>1690000</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A171">
         <v>1785396</v>
       </c>
@@ -8774,7 +8829,7 @@
         <v>1700000</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A172">
         <v>1833563</v>
       </c>
@@ -8782,7 +8837,7 @@
         <v>1710000</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A173">
         <v>1808771</v>
       </c>
@@ -8790,7 +8845,7 @@
         <v>1720000</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A174">
         <v>1819229</v>
       </c>
@@ -8798,7 +8853,7 @@
         <v>1730000</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A175">
         <v>1826354</v>
       </c>
@@ -8806,7 +8861,7 @@
         <v>1740000</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A176">
         <v>1842313</v>
       </c>
@@ -8814,7 +8869,7 @@
         <v>1750000</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A177">
         <v>1844771</v>
       </c>
@@ -8822,7 +8877,7 @@
         <v>1760000</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A178">
         <v>1857854</v>
       </c>
@@ -8830,7 +8885,7 @@
         <v>1770000</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A179">
         <v>1859229</v>
       </c>
@@ -8838,7 +8893,7 @@
         <v>1780000</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A180">
         <v>1880646</v>
       </c>
@@ -8846,7 +8901,7 @@
         <v>1790000</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A181">
         <v>1883271</v>
       </c>
@@ -8854,7 +8909,7 @@
         <v>1800000</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A182">
         <v>1908896</v>
       </c>
@@ -8862,7 +8917,7 @@
         <v>1810000</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A183">
         <v>1907313</v>
       </c>
@@ -8870,7 +8925,7 @@
         <v>1820000</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A184">
         <v>1922479</v>
       </c>
@@ -8878,7 +8933,7 @@
         <v>1830000</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A185">
         <v>1937063</v>
       </c>
@@ -8886,7 +8941,7 @@
         <v>1840000</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A186">
         <v>1939021</v>
       </c>
@@ -8894,7 +8949,7 @@
         <v>1850000</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A187">
         <v>1944354</v>
       </c>
@@ -8902,7 +8957,7 @@
         <v>1860000</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A188">
         <v>1959396</v>
       </c>
@@ -8910,7 +8965,7 @@
         <v>1870000</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A189">
         <v>1960688</v>
       </c>
@@ -8918,7 +8973,7 @@
         <v>1880000</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A190">
         <v>1984063</v>
       </c>
@@ -8926,7 +8981,7 @@
         <v>1890000</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A191">
         <v>1986396</v>
       </c>
@@ -8934,7 +8989,7 @@
         <v>1900000</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A192">
         <v>2000521</v>
       </c>
@@ -8942,7 +8997,7 @@
         <v>1910000</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A193">
         <v>2003938</v>
       </c>
@@ -8950,7 +9005,7 @@
         <v>1920000</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A194">
         <v>2019854</v>
       </c>
@@ -8958,7 +9013,7 @@
         <v>1930000</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A195">
         <v>2023396</v>
       </c>
@@ -8966,7 +9021,7 @@
         <v>1940000</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A196">
         <v>2039938</v>
       </c>
@@ -8974,7 +9029,7 @@
         <v>1950000</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A197">
         <v>2044146</v>
       </c>
@@ -8982,7 +9037,7 @@
         <v>1960000</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A198">
         <v>2057729</v>
       </c>
@@ -8990,7 +9045,7 @@
         <v>1970000</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A199">
         <v>2064729</v>
       </c>
@@ -8998,7 +9053,7 @@
         <v>1980000</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A200">
         <v>2078521</v>
       </c>
@@ -9006,7 +9061,7 @@
         <v>1990000</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A201">
         <v>2082938</v>
       </c>
@@ -9014,7 +9069,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A202">
         <v>2096313</v>
       </c>
@@ -9022,7 +9077,7 @@
         <v>2010000</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A203">
         <v>2105646</v>
       </c>
@@ -9030,7 +9085,7 @@
         <v>2020000</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A204">
         <v>2119229</v>
       </c>
@@ -9038,7 +9093,7 @@
         <v>2030000</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A205">
         <v>2122604</v>
       </c>
@@ -9046,7 +9101,7 @@
         <v>2040000</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A206">
         <v>2140438</v>
       </c>
@@ -9054,7 +9109,7 @@
         <v>2050000</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A207">
         <v>2144313</v>
       </c>
@@ -9062,7 +9117,7 @@
         <v>2060000</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A208">
         <v>2160396</v>
       </c>
@@ -9070,7 +9125,7 @@
         <v>2070000</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A209">
         <v>2174146</v>
       </c>
@@ -9078,7 +9133,7 @@
         <v>2080000</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A210">
         <v>2187313</v>
       </c>
@@ -9086,7 +9141,7 @@
         <v>2090000</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A211">
         <v>2182104</v>
       </c>
@@ -9094,7 +9149,7 @@
         <v>2100000</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A212">
         <v>2199271</v>
       </c>
@@ -9102,7 +9157,7 @@
         <v>2110000</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A213">
         <v>2205479</v>
       </c>
@@ -9110,7 +9165,7 @@
         <v>2120000</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A214">
         <v>2219729</v>
       </c>
@@ -9118,7 +9173,7 @@
         <v>2130000</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A215">
         <v>2221313</v>
       </c>
@@ -9126,7 +9181,7 @@
         <v>2140000</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A216">
         <v>2246521</v>
       </c>
@@ -9134,7 +9189,7 @@
         <v>2150000</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A217">
         <v>2248604</v>
       </c>
@@ -9142,7 +9197,7 @@
         <v>2160000</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A218">
         <v>2260354</v>
       </c>
@@ -9150,7 +9205,7 @@
         <v>2170000</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A219">
         <v>2265396</v>
       </c>
@@ -9158,7 +9213,7 @@
         <v>2180000</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A220">
         <v>2280854</v>
       </c>
@@ -9166,7 +9221,7 @@
         <v>2190000</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A221">
         <v>2319479</v>
       </c>
@@ -9174,7 +9229,7 @@
         <v>2200000</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A222">
         <v>2300854</v>
       </c>
@@ -9182,7 +9237,7 @@
         <v>2210000</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A223">
         <v>2308563</v>
       </c>
@@ -9190,7 +9245,7 @@
         <v>2220000</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A224">
         <v>2320479</v>
       </c>
@@ -9198,7 +9253,7 @@
         <v>2230000</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A225">
         <v>2326146</v>
       </c>
@@ -9206,7 +9261,7 @@
         <v>2240000</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A226">
         <v>2341604</v>
       </c>
@@ -9214,7 +9269,7 @@
         <v>2250000</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A227">
         <v>2345188</v>
       </c>
@@ -9222,7 +9277,7 @@
         <v>2260000</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A228">
         <v>2357729</v>
       </c>
@@ -9230,7 +9285,7 @@
         <v>2270000</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A229">
         <v>2365854</v>
       </c>
@@ -9238,7 +9293,7 @@
         <v>2280000</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A230">
         <v>2379813</v>
       </c>
@@ -9246,7 +9301,7 @@
         <v>2290000</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A231">
         <v>2395188</v>
       </c>
@@ -9254,7 +9309,7 @@
         <v>2300000</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A232">
         <v>2410479</v>
       </c>
@@ -9262,7 +9317,7 @@
         <v>2310000</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A233">
         <v>2441521</v>
       </c>
@@ -9270,7 +9325,7 @@
         <v>2320000</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A234">
         <v>2422896</v>
       </c>
@@ -9278,7 +9333,7 @@
         <v>2330000</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A235">
         <v>2426438</v>
       </c>
@@ -9286,7 +9341,7 @@
         <v>2340000</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A236">
         <v>2441813</v>
       </c>
@@ -9294,7 +9349,7 @@
         <v>2350000</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A237">
         <v>2445896</v>
       </c>
@@ -9302,7 +9357,7 @@
         <v>2360000</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A238">
         <v>2461688</v>
       </c>
@@ -9310,7 +9365,7 @@
         <v>2370000</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A239">
         <v>2462313</v>
       </c>
@@ -9318,7 +9373,7 @@
         <v>2380000</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A240">
         <v>2479813</v>
       </c>
@@ -9326,7 +9381,7 @@
         <v>2390000</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A241">
         <v>2485521</v>
       </c>
@@ -9334,7 +9389,7 @@
         <v>2400000</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A242">
         <v>2500771</v>
       </c>
@@ -9342,7 +9397,7 @@
         <v>2410000</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A243">
         <v>2504979</v>
       </c>
@@ -9350,7 +9405,7 @@
         <v>2420000</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A244">
         <v>2519938</v>
       </c>
@@ -9358,7 +9413,7 @@
         <v>2430000</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A245">
         <v>2523688</v>
       </c>
@@ -9366,7 +9421,7 @@
         <v>2440000</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A246">
         <v>2538813</v>
       </c>
@@ -9374,7 +9429,7 @@
         <v>2450000</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A247">
         <v>2543354</v>
       </c>
@@ -9382,7 +9437,7 @@
         <v>2460000</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A248">
         <v>2561146</v>
       </c>
@@ -9390,7 +9445,7 @@
         <v>2470000</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A249">
         <v>2563938</v>
       </c>
@@ -9398,7 +9453,7 @@
         <v>2480000</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A250">
         <v>2584688</v>
       </c>
@@ -9406,7 +9461,7 @@
         <v>2490000</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A251">
         <v>2593771</v>
       </c>
@@ -9414,7 +9469,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A252">
         <v>2612271</v>
       </c>
@@ -9422,7 +9477,7 @@
         <v>2510000</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A253">
         <v>2604479</v>
       </c>
@@ -9430,7 +9485,7 @@
         <v>2520000</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A254">
         <v>2622104</v>
       </c>
@@ -9438,7 +9493,7 @@
         <v>2530000</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A255">
         <v>2623688</v>
       </c>
@@ -9446,7 +9501,7 @@
         <v>2540000</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A256">
         <v>2639979</v>
       </c>
@@ -9454,7 +9509,7 @@
         <v>2550000</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A257">
         <v>2646396</v>
       </c>
@@ -9462,7 +9517,7 @@
         <v>2560000</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A258">
         <v>2655771</v>
       </c>
@@ -9470,7 +9525,7 @@
         <v>2570000</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A259">
         <v>2661896</v>
       </c>
@@ -9478,7 +9533,7 @@
         <v>2580000</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A260">
         <v>2680188</v>
       </c>
@@ -9486,7 +9541,7 @@
         <v>2590000</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A261">
         <v>2716604</v>
       </c>
@@ -9494,7 +9549,7 @@
         <v>2600000</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A262">
         <v>2702688</v>
       </c>
@@ -9502,7 +9557,7 @@
         <v>2610000</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A263">
         <v>2703521</v>
       </c>
@@ -9510,7 +9565,7 @@
         <v>2620000</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A264">
         <v>2720896</v>
       </c>
@@ -9518,7 +9573,7 @@
         <v>2630000</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A265">
         <v>2722604</v>
       </c>
@@ -9526,7 +9581,7 @@
         <v>2640000</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A266">
         <v>2739688</v>
       </c>
@@ -9534,7 +9589,7 @@
         <v>2650000</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A267">
         <v>2741771</v>
       </c>
@@ -9542,7 +9597,7 @@
         <v>2660000</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A268">
         <v>2758063</v>
       </c>
@@ -9550,7 +9605,7 @@
         <v>2670000</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A269">
         <v>2761313</v>
       </c>
@@ -9558,7 +9613,7 @@
         <v>2680000</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A270">
         <v>2790479</v>
       </c>
@@ -9566,7 +9621,7 @@
         <v>2690000</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A271">
         <v>2786604</v>
       </c>
@@ -9574,7 +9629,7 @@
         <v>2700000</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A272">
         <v>2796771</v>
       </c>
@@ -9582,7 +9637,7 @@
         <v>2710000</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A273">
         <v>2802771</v>
       </c>
@@ -9590,7 +9645,7 @@
         <v>2720000</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A274">
         <v>2815979</v>
       </c>
@@ -9598,7 +9653,7 @@
         <v>2730000</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A275">
         <v>2821229</v>
       </c>
@@ -9606,7 +9661,7 @@
         <v>2740000</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A276">
         <v>2839354</v>
       </c>
@@ -9614,7 +9669,7 @@
         <v>2750000</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A277">
         <v>2843979</v>
       </c>
@@ -9622,7 +9677,7 @@
         <v>2760000</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A278">
         <v>2859063</v>
       </c>
@@ -9630,7 +9685,7 @@
         <v>2770000</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A279">
         <v>2863021</v>
       </c>
@@ -9638,7 +9693,7 @@
         <v>2780000</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A280">
         <v>2876271</v>
       </c>
@@ -9646,7 +9701,7 @@
         <v>2790000</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A281">
         <v>2884854</v>
       </c>
@@ -9654,7 +9709,7 @@
         <v>2800000</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A282">
         <v>2895646</v>
       </c>
@@ -9662,7 +9717,7 @@
         <v>2810000</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A283">
         <v>2903688</v>
       </c>
@@ -9670,7 +9725,7 @@
         <v>2820000</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A284">
         <v>2926229</v>
       </c>
@@ -9678,7 +9733,7 @@
         <v>2830000</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A285">
         <v>2924604</v>
       </c>
@@ -9686,7 +9741,7 @@
         <v>2840000</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A286">
         <v>2944438</v>
       </c>
@@ -9694,7 +9749,7 @@
         <v>2850000</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A287">
         <v>2953979</v>
       </c>
@@ -9702,7 +9757,7 @@
         <v>2860000</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A288">
         <v>2970604</v>
       </c>
@@ -9710,7 +9765,7 @@
         <v>2870000</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A289">
         <v>2964604</v>
       </c>
@@ -9718,7 +9773,7 @@
         <v>2880000</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A290">
         <v>2981813</v>
       </c>
@@ -9726,7 +9781,7 @@
         <v>2890000</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A291">
         <v>2982813</v>
       </c>
@@ -9734,7 +9789,7 @@
         <v>2900000</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A292">
         <v>2999146</v>
       </c>
@@ -9742,7 +9797,7 @@
         <v>2910000</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A293">
         <v>3003104</v>
       </c>
@@ -9750,7 +9805,7 @@
         <v>2920000</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A294">
         <v>3017521</v>
       </c>
@@ -9758,7 +9813,7 @@
         <v>2930000</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A295">
         <v>3022188</v>
       </c>
@@ -9766,7 +9821,7 @@
         <v>2940000</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A296">
         <v>3072229</v>
       </c>
@@ -9774,7 +9829,7 @@
         <v>2950000</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A297">
         <v>3043646</v>
       </c>
@@ -9782,7 +9837,7 @@
         <v>2960000</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A298">
         <v>3059271</v>
       </c>
@@ -9790,7 +9845,7 @@
         <v>2970000</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A299">
         <v>3062729</v>
       </c>
@@ -9798,7 +9853,7 @@
         <v>2980000</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A300">
         <v>3080938</v>
       </c>
@@ -9806,7 +9861,7 @@
         <v>2990000</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A301">
         <v>3081396</v>
       </c>
@@ -9814,7 +9869,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A302">
         <v>3101729</v>
       </c>
@@ -9822,7 +9877,7 @@
         <v>3010000</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A303">
         <v>3103188</v>
       </c>
@@ -9830,7 +9885,7 @@
         <v>3020000</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A304">
         <v>3138729</v>
       </c>
@@ -9838,7 +9893,7 @@
         <v>3030000</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A305">
         <v>3124854</v>
       </c>
@@ -9846,7 +9901,7 @@
         <v>3040000</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A306">
         <v>3141938</v>
       </c>
@@ -9854,7 +9909,7 @@
         <v>3050000</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A307">
         <v>3144271</v>
       </c>
@@ -9862,7 +9917,7 @@
         <v>3060000</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A308">
         <v>3159104</v>
       </c>
@@ -9870,7 +9925,7 @@
         <v>3070000</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A309">
         <v>3164354</v>
       </c>
@@ -9878,7 +9933,7 @@
         <v>3080000</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A310">
         <v>3179646</v>
       </c>
@@ -9886,7 +9941,7 @@
         <v>3090000</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A311">
         <v>3184313</v>
       </c>
@@ -9894,7 +9949,7 @@
         <v>3100000</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A312">
         <v>3197563</v>
       </c>
@@ -9902,7 +9957,7 @@
         <v>3110000</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A313">
         <v>3204521</v>
       </c>
@@ -9910,7 +9965,7 @@
         <v>3120000</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A314">
         <v>3218979</v>
       </c>
@@ -9918,7 +9973,7 @@
         <v>3130000</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A315">
         <v>3223729</v>
       </c>
@@ -9926,7 +9981,7 @@
         <v>3140000</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A316">
         <v>3242563</v>
       </c>
@@ -9934,7 +9989,7 @@
         <v>3150000</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A317">
         <v>3242771</v>
       </c>
@@ -9942,7 +9997,7 @@
         <v>3160000</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A318">
         <v>3271229</v>
       </c>
@@ -9950,7 +10005,7 @@
         <v>3170000</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A319">
         <v>3266104</v>
       </c>
@@ -9958,7 +10013,7 @@
         <v>3180000</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A320">
         <v>3297354</v>
       </c>
@@ -9966,7 +10021,7 @@
         <v>3190000</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A321">
         <v>3286688</v>
       </c>
@@ -9974,7 +10029,7 @@
         <v>3200000</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A322">
         <v>3300479</v>
       </c>
@@ -9982,7 +10037,7 @@
         <v>3210000</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A323">
         <v>3304563</v>
       </c>
@@ -9990,7 +10045,7 @@
         <v>3220000</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A324">
         <v>3318979</v>
       </c>
@@ -9998,7 +10053,7 @@
         <v>3230000</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A325">
         <v>3325063</v>
       </c>
@@ -10006,7 +10061,7 @@
         <v>3240000</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A326">
         <v>3338813</v>
       </c>
@@ -10014,7 +10069,7 @@
         <v>3250000</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A327">
         <v>3342188</v>
       </c>
@@ -10022,7 +10077,7 @@
         <v>3260000</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A328">
         <v>3393563</v>
       </c>
@@ -10030,7 +10085,7 @@
         <v>3270000</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A329">
         <v>3364271</v>
       </c>
@@ -10038,7 +10093,7 @@
         <v>3280000</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A330">
         <v>3382229</v>
       </c>
@@ -10046,7 +10101,7 @@
         <v>3290000</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A331">
         <v>3383979</v>
       </c>
@@ -10054,7 +10109,7 @@
         <v>3300000</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A332">
         <v>3401146</v>
       </c>
@@ -10062,7 +10117,7 @@
         <v>3310000</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A333">
         <v>3404896</v>
       </c>
@@ -10070,7 +10125,7 @@
         <v>3320000</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A334">
         <v>3420188</v>
       </c>
@@ -10078,7 +10133,7 @@
         <v>3330000</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A335">
         <v>3442854</v>
       </c>
@@ -10086,7 +10141,7 @@
         <v>3340000</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A336">
         <v>3440396</v>
       </c>
@@ -10094,7 +10149,7 @@
         <v>3350000</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A337">
         <v>3442688</v>
       </c>
@@ -10102,7 +10157,7 @@
         <v>3360000</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A338">
         <v>3457188</v>
       </c>
@@ -10110,7 +10165,7 @@
         <v>3370000</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A339">
         <v>3463896</v>
       </c>
@@ -10118,7 +10173,7 @@
         <v>3380000</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A340">
         <v>3480563</v>
       </c>
@@ -10126,7 +10181,7 @@
         <v>3390000</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A341">
         <v>3481729</v>
       </c>
@@ -10134,7 +10189,7 @@
         <v>3400000</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A342">
         <v>3502563</v>
       </c>
@@ -10142,7 +10197,7 @@
         <v>3410000</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A343">
         <v>3502604</v>
       </c>
@@ -10150,7 +10205,7 @@
         <v>3420000</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A344">
         <v>3520688</v>
       </c>
@@ -10158,7 +10213,7 @@
         <v>3430000</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A345">
         <v>3523938</v>
       </c>
@@ -10166,7 +10221,7 @@
         <v>3440000</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A346">
         <v>3536563</v>
       </c>
@@ -10174,7 +10229,7 @@
         <v>3450000</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A347">
         <v>3542521</v>
       </c>
@@ -10182,7 +10237,7 @@
         <v>3460000</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A348">
         <v>3558313</v>
       </c>
@@ -10190,7 +10245,7 @@
         <v>3470000</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A349">
         <v>3576188</v>
       </c>
@@ -10198,7 +10253,7 @@
         <v>3480000</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A350">
         <v>3587813</v>
       </c>
@@ -10206,7 +10261,7 @@
         <v>3490000</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A351">
         <v>3590396</v>
       </c>
@@ -10214,7 +10269,7 @@
         <v>3500000</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A352">
         <v>3606271</v>
       </c>
@@ -10222,7 +10277,7 @@
         <v>3510000</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A353">
         <v>3605229</v>
       </c>
@@ -10230,7 +10285,7 @@
         <v>3520000</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A354">
         <v>3618854</v>
       </c>
@@ -10238,7 +10293,7 @@
         <v>3530000</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A355">
         <v>3624521</v>
       </c>
@@ -10246,7 +10301,7 @@
         <v>3540000</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A356">
         <v>3675271</v>
       </c>
@@ -10254,7 +10309,7 @@
         <v>3550000</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A357">
         <v>3649188</v>
       </c>
@@ -10262,7 +10317,7 @@
         <v>3560000</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A358">
         <v>3662479</v>
       </c>
@@ -10270,7 +10325,7 @@
         <v>3570000</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A359">
         <v>3665063</v>
       </c>
@@ -10278,7 +10333,7 @@
         <v>3580000</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A360">
         <v>3679854</v>
       </c>
@@ -10286,7 +10341,7 @@
         <v>3590000</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A361">
         <v>3684938</v>
       </c>
@@ -10294,7 +10349,7 @@
         <v>3600000</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A362">
         <v>3700063</v>
       </c>
@@ -10302,7 +10357,7 @@
         <v>3610000</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A363">
         <v>3720146</v>
       </c>
@@ -10310,7 +10365,7 @@
         <v>3620000</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A364">
         <v>3720021</v>
       </c>
@@ -10318,7 +10373,7 @@
         <v>3630000</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A365">
         <v>3722396</v>
       </c>
@@ -10326,7 +10381,7 @@
         <v>3640000</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A366">
         <v>3737188</v>
       </c>
@@ -10334,7 +10389,7 @@
         <v>3650000</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A367">
         <v>3744979</v>
       </c>
@@ -10342,7 +10397,7 @@
         <v>3660000</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A368">
         <v>3758688</v>
       </c>
@@ -10350,7 +10405,7 @@
         <v>3670000</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A369">
         <v>3764979</v>
       </c>
@@ -10358,7 +10413,7 @@
         <v>3680000</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A370">
         <v>3780813</v>
       </c>
@@ -10366,7 +10421,7 @@
         <v>3690000</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A371">
         <v>3781146</v>
       </c>
@@ -10374,7 +10429,7 @@
         <v>3700000</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A372">
         <v>3801021</v>
       </c>
@@ -10382,7 +10437,7 @@
         <v>3710000</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A373">
         <v>3808896</v>
       </c>
@@ -10390,7 +10445,7 @@
         <v>3720000</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A374">
         <v>3822688</v>
       </c>
@@ -10398,7 +10453,7 @@
         <v>3730000</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A375">
         <v>3823479</v>
       </c>
@@ -10406,7 +10461,7 @@
         <v>3740000</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A376">
         <v>3855396</v>
       </c>
@@ -10414,7 +10469,7 @@
         <v>3750000</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A377">
         <v>3842146</v>
       </c>
@@ -10422,7 +10477,7 @@
         <v>3760000</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A378">
         <v>3864188</v>
       </c>
@@ -10430,7 +10485,7 @@
         <v>3770000</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A379">
         <v>3866563</v>
       </c>
@@ -10438,7 +10493,7 @@
         <v>3780000</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A380">
         <v>3880146</v>
       </c>
@@ -10446,7 +10501,7 @@
         <v>3790000</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A381">
         <v>3883771</v>
       </c>
@@ -10454,7 +10509,7 @@
         <v>3800000</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A382">
         <v>3899771</v>
       </c>
@@ -10462,7 +10517,7 @@
         <v>3810000</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A383">
         <v>3937063</v>
       </c>
@@ -10470,7 +10525,7 @@
         <v>3820000</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A384">
         <v>3932563</v>
       </c>
@@ -10478,7 +10533,7 @@
         <v>3830000</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A385">
         <v>3928354</v>
       </c>
@@ -10486,7 +10541,7 @@
         <v>3840000</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A386">
         <v>3944938</v>
       </c>
@@ -10494,7 +10549,7 @@
         <v>3850000</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A387">
         <v>3947563</v>
       </c>
@@ -10502,7 +10557,7 @@
         <v>3860000</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A388">
         <v>3963104</v>
       </c>
@@ -10510,7 +10565,7 @@
         <v>3870000</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A389">
         <v>3982813</v>
       </c>
@@ -10518,7 +10573,7 @@
         <v>3880000</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A390">
         <v>3980938</v>
       </c>
@@ -10526,7 +10581,7 @@
         <v>3890000</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A391">
         <v>3985354</v>
       </c>
@@ -10534,7 +10589,7 @@
         <v>3900000</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A392">
         <v>3996479</v>
       </c>
@@ -10542,7 +10597,7 @@
         <v>3910000</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A393">
         <v>4003021</v>
       </c>
@@ -10550,7 +10605,7 @@
         <v>3920000</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A394">
         <v>4018604</v>
       </c>
@@ -10558,7 +10613,7 @@
         <v>3930000</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A395">
         <v>4021104</v>
       </c>
@@ -10566,7 +10621,7 @@
         <v>3940000</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A396">
         <v>4039771</v>
       </c>
@@ -10574,7 +10629,7 @@
         <v>3950000</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A397">
         <v>4042813</v>
       </c>
@@ -10582,7 +10637,7 @@
         <v>3960000</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A398">
         <v>4060979</v>
       </c>
@@ -10590,7 +10645,7 @@
         <v>3970000</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A399">
         <v>4061313</v>
       </c>
@@ -10598,7 +10653,7 @@
         <v>3980000</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A400">
         <v>4079104</v>
       </c>
@@ -10606,7 +10661,7 @@
         <v>3990000</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A401">
         <v>4092896</v>
       </c>
@@ -10614,7 +10669,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A402">
         <v>4110021</v>
       </c>
@@ -10622,7 +10677,7 @@
         <v>4010000</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A403">
         <v>4103104</v>
       </c>
@@ -10630,7 +10685,7 @@
         <v>4020000</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A404">
         <v>4120104</v>
       </c>
@@ -10638,7 +10693,7 @@
         <v>4030000</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A405">
         <v>4122229</v>
       </c>
@@ -10646,7 +10701,7 @@
         <v>4040000</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A406">
         <v>4140271</v>
       </c>
@@ -10654,7 +10709,7 @@
         <v>4050000</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A407">
         <v>4143021</v>
       </c>
@@ -10662,7 +10717,7 @@
         <v>4060000</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A408">
         <v>4187021</v>
       </c>
@@ -10670,7 +10725,7 @@
         <v>4070000</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A409">
         <v>4163521</v>
       </c>
@@ -10678,7 +10733,7 @@
         <v>4080000</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A410">
         <v>4178896</v>
       </c>
@@ -10686,7 +10741,7 @@
         <v>4090000</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A411">
         <v>4183479</v>
       </c>
@@ -10694,7 +10749,7 @@
         <v>4100000</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A412">
         <v>4199688</v>
       </c>
@@ -10702,7 +10757,7 @@
         <v>4110000</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A413">
         <v>4210604</v>
       </c>
@@ -10710,7 +10765,7 @@
         <v>4120000</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A414">
         <v>4229688</v>
       </c>
@@ -10718,7 +10773,7 @@
         <v>4130000</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A415">
         <v>4224104</v>
       </c>
@@ -10726,7 +10781,7 @@
         <v>4140000</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A416">
         <v>4240646</v>
       </c>
@@ -10734,7 +10789,7 @@
         <v>4150000</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A417">
         <v>4244313</v>
       </c>
@@ -10742,7 +10797,7 @@
         <v>4160000</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A418">
         <v>4265688</v>
       </c>
@@ -10750,7 +10805,7 @@
         <v>4170000</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A419">
         <v>4262646</v>
       </c>
@@ -10758,7 +10813,7 @@
         <v>4180000</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A420">
         <v>4279146</v>
       </c>
@@ -10766,7 +10821,7 @@
         <v>4190000</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A421">
         <v>4283771</v>
       </c>
@@ -10774,7 +10829,7 @@
         <v>4200000</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A422">
         <v>4297854</v>
       </c>
@@ -10782,7 +10837,7 @@
         <v>4210000</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A423">
         <v>4304438</v>
       </c>
@@ -10790,7 +10845,7 @@
         <v>4220000</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A424">
         <v>4320896</v>
       </c>
@@ -10798,7 +10853,7 @@
         <v>4230000</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A425">
         <v>4342229</v>
       </c>
@@ -10806,7 +10861,7 @@
         <v>4240000</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A426">
         <v>4338479</v>
       </c>
@@ -10814,7 +10869,7 @@
         <v>4250000</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A427">
         <v>4344063</v>
       </c>
@@ -10822,7 +10877,7 @@
         <v>4260000</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A428">
         <v>4360354</v>
       </c>
@@ -10830,7 +10885,7 @@
         <v>4270000</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A429">
         <v>4362229</v>
       </c>
@@ -10838,7 +10893,7 @@
         <v>4280000</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A430">
         <v>4379646</v>
       </c>
@@ -10846,7 +10901,7 @@
         <v>4290000</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A431">
         <v>4412771</v>
       </c>
@@ -10854,7 +10909,7 @@
         <v>4300000</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A432">
         <v>4402313</v>
       </c>
@@ -10862,7 +10917,7 @@
         <v>4310000</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A433">
         <v>4404021</v>
       </c>
@@ -10870,7 +10925,7 @@
         <v>4320000</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A434">
         <v>4419563</v>
       </c>
@@ -10878,7 +10933,7 @@
         <v>4330000</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A435">
         <v>4451146</v>
       </c>
@@ -10886,7 +10941,7 @@
         <v>4340000</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A436">
         <v>4447188</v>
       </c>
@@ -10894,7 +10949,7 @@
         <v>4350000</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A437">
         <v>4459438</v>
       </c>
@@ -10902,7 +10957,7 @@
         <v>4360000</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A438">
         <v>4464313</v>
       </c>
@@ -10910,7 +10965,7 @@
         <v>4370000</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A439">
         <v>4461729</v>
       </c>
@@ -10918,7 +10973,7 @@
         <v>4380000</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A440">
         <v>4481104</v>
       </c>
@@ -10926,7 +10981,7 @@
         <v>4390000</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A441">
         <v>4486729</v>
       </c>
@@ -10934,7 +10989,7 @@
         <v>4400000</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A442">
         <v>4499229</v>
       </c>
@@ -10942,7 +10997,7 @@
         <v>4410000</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A443">
         <v>4503438</v>
       </c>
@@ -10950,7 +11005,7 @@
         <v>4420000</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A444">
         <v>4521229</v>
       </c>
@@ -10958,7 +11013,7 @@
         <v>4430000</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A445">
         <v>4525604</v>
       </c>
@@ -10966,7 +11021,7 @@
         <v>4440000</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A446">
         <v>4541521</v>
       </c>
@@ -10974,7 +11029,7 @@
         <v>4450000</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A447">
         <v>4544563</v>
       </c>
@@ -10982,7 +11037,7 @@
         <v>4460000</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A448">
         <v>4586479</v>
       </c>
@@ -10990,7 +11045,7 @@
         <v>4470000</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A449">
         <v>4565896</v>
       </c>
@@ -10998,7 +11053,7 @@
         <v>4480000</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A450">
         <v>4583521</v>
       </c>
@@ -11006,7 +11061,7 @@
         <v>4490000</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A451">
         <v>4587021</v>
       </c>
@@ -11014,7 +11069,7 @@
         <v>4500000</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A452">
         <v>4601354</v>
       </c>
@@ -11022,7 +11077,7 @@
         <v>4510000</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A453">
         <v>4639229</v>
       </c>
@@ -11030,7 +11085,7 @@
         <v>4520000</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A454">
         <v>4623354</v>
       </c>
@@ -11038,7 +11093,7 @@
         <v>4530000</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A455">
         <v>4638646</v>
       </c>
@@ -11046,7 +11101,7 @@
         <v>4540000</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A456">
         <v>4641521</v>
       </c>
@@ -11054,7 +11109,7 @@
         <v>4550000</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A457">
         <v>4644229</v>
       </c>
@@ -11062,7 +11117,7 @@
         <v>4560000</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A458">
         <v>4660104</v>
       </c>
@@ -11070,7 +11125,7 @@
         <v>4570000</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A459">
         <v>4673063</v>
       </c>
@@ -11078,7 +11133,7 @@
         <v>4580000</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A460">
         <v>4678521</v>
       </c>
@@ -11086,7 +11141,7 @@
         <v>4590000</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A461">
         <v>4685813</v>
       </c>
@@ -11094,7 +11149,7 @@
         <v>4600000</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A462">
         <v>4700938</v>
       </c>
@@ -11102,7 +11157,7 @@
         <v>4610000</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A463">
         <v>4704021</v>
       </c>
@@ -11110,7 +11165,7 @@
         <v>4620000</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A464">
         <v>4719271</v>
       </c>
@@ -11118,7 +11173,7 @@
         <v>4630000</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A465">
         <v>4725479</v>
       </c>
@@ -11126,7 +11181,7 @@
         <v>4640000</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A466">
         <v>4737521</v>
       </c>
@@ -11134,7 +11189,7 @@
         <v>4650000</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A467">
         <v>4743479</v>
       </c>
@@ -11142,7 +11197,7 @@
         <v>4660000</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A468">
         <v>4755479</v>
       </c>
@@ -11150,7 +11205,7 @@
         <v>4670000</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A469">
         <v>4777938</v>
       </c>
@@ -11158,7 +11213,7 @@
         <v>4680000</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A470">
         <v>4780146</v>
       </c>
@@ -11166,7 +11221,7 @@
         <v>4690000</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A471">
         <v>4783146</v>
       </c>
@@ -11174,7 +11229,7 @@
         <v>4700000</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A472">
         <v>4798104</v>
       </c>
@@ -11182,7 +11237,7 @@
         <v>4710000</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A473">
         <v>4803104</v>
       </c>
@@ -11190,7 +11245,7 @@
         <v>4720000</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A474">
         <v>4818979</v>
       </c>
@@ -11198,7 +11253,7 @@
         <v>4730000</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A475">
         <v>4857188</v>
       </c>
@@ -11206,7 +11261,7 @@
         <v>4740000</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A476">
         <v>4842396</v>
       </c>
@@ -11214,7 +11269,7 @@
         <v>4750000</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A477">
         <v>4846146</v>
       </c>
@@ -11222,7 +11277,7 @@
         <v>4760000</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A478">
         <v>4860021</v>
       </c>
@@ -11230,7 +11285,7 @@
         <v>4770000</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A479">
         <v>4864104</v>
       </c>
@@ -11238,7 +11293,7 @@
         <v>4780000</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A480">
         <v>4892646</v>
       </c>
@@ -11246,7 +11301,7 @@
         <v>4790000</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A481">
         <v>4884813</v>
       </c>
@@ -11254,7 +11309,7 @@
         <v>4800000</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A482">
         <v>4904938</v>
       </c>
@@ -11262,7 +11317,7 @@
         <v>4810000</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A483">
         <v>4909688</v>
       </c>
@@ -11270,7 +11325,7 @@
         <v>4820000</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A484">
         <v>4920063</v>
       </c>
@@ -11278,7 +11333,7 @@
         <v>4830000</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A485">
         <v>4924229</v>
       </c>
@@ -11286,7 +11341,7 @@
         <v>4840000</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A486">
         <v>4939229</v>
       </c>
@@ -11294,7 +11349,7 @@
         <v>4850000</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A487">
         <v>4944271</v>
       </c>
@@ -11302,7 +11357,7 @@
         <v>4860000</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A488">
         <v>4959063</v>
       </c>
@@ -11310,7 +11365,7 @@
         <v>4870000</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A489">
         <v>4961688</v>
       </c>
@@ -11318,7 +11373,7 @@
         <v>4880000</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A490">
         <v>4992521</v>
       </c>
@@ -11326,7 +11381,7 @@
         <v>4890000</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A491">
         <v>4984021</v>
       </c>
@@ -11334,7 +11389,7 @@
         <v>4900000</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A492">
         <v>5000188</v>
       </c>
@@ -11342,7 +11397,7 @@
         <v>4910000</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A493">
         <v>5008021</v>
       </c>
@@ -11350,7 +11405,7 @@
         <v>4920000</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A494">
         <v>5023271</v>
       </c>
@@ -11358,7 +11413,7 @@
         <v>4930000</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A495">
         <v>5055229</v>
       </c>
@@ -11366,7 +11421,7 @@
         <v>4940000</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A496">
         <v>5042229</v>
       </c>
@@ -11374,7 +11429,7 @@
         <v>4950000</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A497">
         <v>5046063</v>
       </c>
@@ -11382,7 +11437,7 @@
         <v>4960000</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A498">
         <v>5059771</v>
       </c>
@@ -11390,7 +11445,7 @@
         <v>4970000</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A499">
         <v>5066521</v>
       </c>
@@ -11398,7 +11453,7 @@
         <v>4980000</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A500">
         <v>5133146</v>
       </c>
@@ -11406,7 +11461,7 @@
         <v>4990000</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A501">
         <v>5087104</v>
       </c>
@@ -11414,7 +11469,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A502">
         <v>5101438</v>
       </c>
@@ -11422,7 +11477,7 @@
         <v>5010000</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A503">
         <v>5103938</v>
       </c>
@@ -11430,7 +11485,7 @@
         <v>5020000</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A504">
         <v>5119979</v>
       </c>
@@ -11438,7 +11493,7 @@
         <v>5030000</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A505">
         <v>5124313</v>
       </c>
@@ -11446,7 +11501,7 @@
         <v>5040000</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A506">
         <v>5141104</v>
       </c>
@@ -11454,7 +11509,7 @@
         <v>5050000</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A507">
         <v>5145729</v>
       </c>
@@ -11462,7 +11517,7 @@
         <v>5060000</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A508">
         <v>5162771</v>
       </c>
@@ -11470,7 +11525,7 @@
         <v>5070000</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A509">
         <v>5172438</v>
       </c>
@@ -11478,7 +11533,7 @@
         <v>5080000</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A510">
         <v>5189229</v>
       </c>
@@ -11486,7 +11541,7 @@
         <v>5090000</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A511">
         <v>5184313</v>
       </c>
@@ -11494,7 +11549,7 @@
         <v>5100000</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A512">
         <v>5201813</v>
       </c>
@@ -11502,7 +11557,7 @@
         <v>5110000</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A513">
         <v>5205146</v>
       </c>
@@ -11510,7 +11565,7 @@
         <v>5120000</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A514">
         <v>5221979</v>
       </c>
@@ -11518,7 +11573,7 @@
         <v>5130000</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A515">
         <v>5257438</v>
       </c>
@@ -11526,7 +11581,7 @@
         <v>5140000</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A516">
         <v>5251354</v>
       </c>
@@ -11534,7 +11589,7 @@
         <v>5150000</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A517">
         <v>5250729</v>
       </c>
@@ -11542,7 +11597,7 @@
         <v>5160000</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A518">
         <v>5265313</v>
       </c>
@@ -11550,7 +11605,7 @@
         <v>5170000</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A519">
         <v>5281896</v>
       </c>
@@ -11558,7 +11613,7 @@
         <v>5180000</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A520">
         <v>5279813</v>
       </c>
@@ -11566,7 +11621,7 @@
         <v>5190000</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A521">
         <v>5290313</v>
       </c>
@@ -11574,7 +11629,7 @@
         <v>5200000</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A522">
         <v>5297604</v>
       </c>
@@ -11582,7 +11637,7 @@
         <v>5210000</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A523">
         <v>5304479</v>
       </c>
@@ -11590,7 +11645,7 @@
         <v>5220000</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A524">
         <v>5318979</v>
       </c>
@@ -11598,7 +11653,7 @@
         <v>5230000</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A525">
         <v>5324563</v>
       </c>
@@ -11606,7 +11661,7 @@
         <v>5240000</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A526">
         <v>5338104</v>
       </c>
@@ -11614,7 +11669,7 @@
         <v>5250000</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A527">
         <v>5342271</v>
       </c>
@@ -11622,7 +11677,7 @@
         <v>5260000</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A528">
         <v>5369188</v>
       </c>
@@ -11630,7 +11685,7 @@
         <v>5270000</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A529">
         <v>5374813</v>
       </c>
@@ -11638,7 +11693,7 @@
         <v>5280000</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A530">
         <v>5380521</v>
       </c>
@@ -11646,7 +11701,7 @@
         <v>5290000</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A531">
         <v>5384688</v>
       </c>
@@ -11654,7 +11709,7 @@
         <v>5300000</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A532">
         <v>5400188</v>
       </c>
@@ -11662,7 +11717,7 @@
         <v>5310000</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A533">
         <v>5439063</v>
       </c>
@@ -11670,7 +11725,7 @@
         <v>5320000</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A534">
         <v>5421646</v>
       </c>
@@ -11678,7 +11733,7 @@
         <v>5330000</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A535">
         <v>5424438</v>
       </c>
@@ -11686,7 +11741,7 @@
         <v>5340000</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A536">
         <v>5438146</v>
       </c>
@@ -11694,7 +11749,7 @@
         <v>5350000</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A537">
         <v>5444146</v>
       </c>
@@ -11702,7 +11757,7 @@
         <v>5360000</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A538">
         <v>5478188</v>
       </c>
@@ -11710,7 +11765,7 @@
         <v>5370000</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A539">
         <v>5466729</v>
       </c>
@@ -11718,7 +11773,7 @@
         <v>5380000</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A540">
         <v>5480813</v>
       </c>
@@ -11726,7 +11781,7 @@
         <v>5390000</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A541">
         <v>5483396</v>
       </c>
@@ -11734,7 +11789,7 @@
         <v>5400000</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A542">
         <v>5499604</v>
       </c>
@@ -11742,7 +11797,7 @@
         <v>5410000</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A543">
         <v>5502229</v>
       </c>
@@ -11750,7 +11805,7 @@
         <v>5420000</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A544">
         <v>5517229</v>
       </c>
@@ -11758,7 +11813,7 @@
         <v>5430000</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A545">
         <v>5523854</v>
       </c>
@@ -11766,7 +11821,7 @@
         <v>5440000</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A546">
         <v>5541146</v>
       </c>
@@ -11774,7 +11829,7 @@
         <v>5450000</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A547">
         <v>5560771</v>
       </c>
@@ -11782,7 +11837,7 @@
         <v>5460000</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A548">
         <v>5564146</v>
       </c>
@@ -11790,7 +11845,7 @@
         <v>5470000</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A549">
         <v>5567854</v>
       </c>
@@ -11798,7 +11853,7 @@
         <v>5480000</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A550">
         <v>5579438</v>
       </c>
@@ -11806,7 +11861,7 @@
         <v>5490000</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A551">
         <v>5584813</v>
       </c>
@@ -11814,7 +11869,7 @@
         <v>5500000</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A552">
         <v>5630771</v>
       </c>
@@ -11822,7 +11877,7 @@
         <v>5510000</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A553">
         <v>5602313</v>
       </c>
@@ -11830,7 +11885,7 @@
         <v>5520000</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A554">
         <v>5620229</v>
       </c>
@@ -11838,7 +11893,7 @@
         <v>5530000</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A555">
         <v>5623854</v>
       </c>
@@ -11846,7 +11901,7 @@
         <v>5540000</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A556">
         <v>5656438</v>
       </c>
@@ -11854,7 +11909,7 @@
         <v>5550000</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A557">
         <v>5642854</v>
       </c>
@@ -11862,7 +11917,7 @@
         <v>5560000</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A558">
         <v>5661021</v>
       </c>
@@ -11870,7 +11925,7 @@
         <v>5570000</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A559">
         <v>5665479</v>
       </c>
@@ -11878,7 +11933,7 @@
         <v>5580000</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A560">
         <v>5679521</v>
       </c>
@@ -11886,7 +11941,7 @@
         <v>5590000</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A561">
         <v>5682896</v>
       </c>
@@ -11894,7 +11949,7 @@
         <v>5600000</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A562">
         <v>5699021</v>
       </c>
@@ -11902,7 +11957,7 @@
         <v>5610000</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A563">
         <v>5702396</v>
       </c>
@@ -11910,7 +11965,7 @@
         <v>5620000</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A564">
         <v>5719438</v>
       </c>
@@ -11918,7 +11973,7 @@
         <v>5630000</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A565">
         <v>5741938</v>
       </c>
@@ -11926,7 +11981,7 @@
         <v>5640000</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A566">
         <v>5740688</v>
       </c>
@@ -11934,7 +11989,7 @@
         <v>5650000</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A567">
         <v>5745896</v>
       </c>
@@ -11942,7 +11997,7 @@
         <v>5660000</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A568">
         <v>5760396</v>
       </c>
@@ -11950,7 +12005,7 @@
         <v>5670000</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A569">
         <v>5795646</v>
       </c>
@@ -11958,7 +12013,7 @@
         <v>5680000</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A570">
         <v>5781063</v>
       </c>
@@ -11966,7 +12021,7 @@
         <v>5690000</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A571">
         <v>5783188</v>
       </c>
@@ -11974,7 +12029,7 @@
         <v>5700000</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A572">
         <v>5801021</v>
       </c>
@@ -11982,7 +12037,7 @@
         <v>5710000</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A573">
         <v>5811479</v>
       </c>
@@ -11990,7 +12045,7 @@
         <v>5720000</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A574">
         <v>5820146</v>
       </c>
@@ -11998,7 +12053,7 @@
         <v>5730000</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A575">
         <v>5824271</v>
       </c>
@@ -12006,7 +12061,7 @@
         <v>5740000</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A576">
         <v>5840979</v>
       </c>
@@ -12014,7 +12069,7 @@
         <v>5750000</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A577">
         <v>5844313</v>
       </c>
@@ -12022,7 +12077,7 @@
         <v>5760000</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A578">
         <v>5857729</v>
       </c>
@@ -12030,7 +12085,7 @@
         <v>5770000</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A579">
         <v>5863979</v>
       </c>
@@ -12038,7 +12093,7 @@
         <v>5780000</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A580">
         <v>5880063</v>
       </c>
@@ -12046,7 +12101,7 @@
         <v>5790000</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A581">
         <v>5884563</v>
       </c>
@@ -12054,7 +12109,7 @@
         <v>5800000</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A582">
         <v>5922188</v>
       </c>
@@ -12062,7 +12117,7 @@
         <v>5810000</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A583">
         <v>5906938</v>
       </c>
@@ -12070,7 +12125,7 @@
         <v>5820000</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A584">
         <v>5923646</v>
       </c>
@@ -12078,7 +12133,7 @@
         <v>5830000</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A585">
         <v>5928063</v>
       </c>
@@ -12086,7 +12141,7 @@
         <v>5840000</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A586">
         <v>5974188</v>
       </c>
@@ -12094,7 +12149,7 @@
         <v>5850000</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A587">
         <v>5946771</v>
       </c>
@@ -12102,7 +12157,7 @@
         <v>5860000</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A588">
         <v>5962438</v>
       </c>
@@ -12110,7 +12165,7 @@
         <v>5870000</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A589">
         <v>5961979</v>
       </c>
@@ -12118,7 +12173,7 @@
         <v>5880000</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A590">
         <v>5995563</v>
       </c>
@@ -12126,7 +12181,7 @@
         <v>5890000</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A591">
         <v>5983438</v>
       </c>
@@ -12134,7 +12189,7 @@
         <v>5900000</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A592">
         <v>5998354</v>
       </c>
@@ -12142,7 +12197,7 @@
         <v>5910000</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A593">
         <v>6004521</v>
       </c>
@@ -12150,7 +12205,7 @@
         <v>5920000</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A594">
         <v>6016563</v>
       </c>
@@ -12158,7 +12213,7 @@
         <v>5930000</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A595">
         <v>6021688</v>
       </c>
@@ -12166,7 +12221,7 @@
         <v>5940000</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A596">
         <v>6038063</v>
       </c>
@@ -12174,7 +12229,7 @@
         <v>5950000</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A597">
         <v>6043521</v>
       </c>
@@ -12182,7 +12237,7 @@
         <v>5960000</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A598">
         <v>6058313</v>
       </c>
@@ -12190,7 +12245,7 @@
         <v>5970000</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A599">
         <v>6080146</v>
       </c>
@@ -12198,7 +12253,7 @@
         <v>5980000</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A600">
         <v>6080021</v>
       </c>
@@ -12206,7 +12261,7 @@
         <v>5990000</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A601">
         <v>6082146</v>
       </c>
@@ -12214,7 +12269,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A602">
         <v>6096063</v>
       </c>
@@ -12222,7 +12277,7 @@
         <v>6010000</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A603">
         <v>6132646</v>
       </c>
@@ -12230,7 +12285,7 @@
         <v>6020000</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A604">
         <v>6120646</v>
       </c>
@@ -12238,7 +12293,7 @@
         <v>6030000</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A605">
         <v>6126271</v>
       </c>
@@ -12246,7 +12301,7 @@
         <v>6040000</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A606">
         <v>6139854</v>
       </c>
@@ -12254,7 +12309,7 @@
         <v>6050000</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A607">
         <v>6159604</v>
       </c>
@@ -12262,7 +12317,7 @@
         <v>6060000</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A608">
         <v>6158688</v>
       </c>
@@ -12270,7 +12325,7 @@
         <v>6070000</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A609">
         <v>6163313</v>
       </c>
@@ -12278,7 +12333,7 @@
         <v>6080000</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A610">
         <v>6181396</v>
       </c>
@@ -12286,7 +12341,7 @@
         <v>6090000</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A611">
         <v>6181979</v>
       </c>
@@ -12294,7 +12349,7 @@
         <v>6100000</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A612">
         <v>6199938</v>
       </c>
@@ -12302,7 +12357,7 @@
         <v>6110000</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A613">
         <v>6205188</v>
       </c>
@@ -12310,7 +12365,7 @@
         <v>6120000</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A614">
         <v>6218896</v>
       </c>
@@ -12318,7 +12373,7 @@
         <v>6130000</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A615">
         <v>6240146</v>
       </c>
@@ -12326,7 +12381,7 @@
         <v>6140000</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A616">
         <v>6246104</v>
       </c>
@@ -12334,7 +12389,7 @@
         <v>6150000</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A617">
         <v>6249104</v>
       </c>
@@ -12342,7 +12397,7 @@
         <v>6160000</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A618">
         <v>6261146</v>
       </c>
@@ -12350,7 +12405,7 @@
         <v>6170000</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A619">
         <v>6293979</v>
       </c>
@@ -12358,7 +12413,7 @@
         <v>6180000</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A620">
         <v>6283063</v>
       </c>
@@ -12366,7 +12421,7 @@
         <v>6190000</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A621">
         <v>6282688</v>
       </c>
@@ -12374,7 +12429,7 @@
         <v>6200000</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A622">
         <v>6303146</v>
       </c>
@@ -12382,7 +12437,7 @@
         <v>6210000</v>
       </c>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A623">
         <v>6319854</v>
       </c>
@@ -12390,7 +12445,7 @@
         <v>6220000</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A624">
         <v>6319479</v>
       </c>
@@ -12398,7 +12453,7 @@
         <v>6230000</v>
       </c>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A625">
         <v>6321479</v>
       </c>
@@ -12406,7 +12461,7 @@
         <v>6240000</v>
       </c>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A626">
         <v>6338938</v>
       </c>
@@ -12414,7 +12469,7 @@
         <v>6250000</v>
       </c>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A627">
         <v>6345938</v>
       </c>
@@ -12422,7 +12477,7 @@
         <v>6260000</v>
       </c>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A628">
         <v>6361063</v>
       </c>
@@ -12430,7 +12485,7 @@
         <v>6270000</v>
       </c>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A629">
         <v>6364146</v>
       </c>
@@ -12438,7 +12493,7 @@
         <v>6280000</v>
       </c>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A630">
         <v>6381854</v>
       </c>
@@ -12446,7 +12501,7 @@
         <v>6290000</v>
       </c>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A631">
         <v>6402688</v>
       </c>
@@ -12454,7 +12509,7 @@
         <v>6300000</v>
       </c>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A632">
         <v>6409813</v>
       </c>
@@ -12462,7 +12517,7 @@
         <v>6310000</v>
       </c>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A633">
         <v>6405021</v>
       </c>
@@ -12470,7 +12525,7 @@
         <v>6320000</v>
       </c>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A634">
         <v>6419063</v>
       </c>
@@ -12478,7 +12533,7 @@
         <v>6330000</v>
       </c>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A635">
         <v>6451354</v>
       </c>
@@ -12486,7 +12541,7 @@
         <v>6340000</v>
       </c>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A636">
         <v>6442729</v>
       </c>
@@ -12494,7 +12549,7 @@
         <v>6350000</v>
       </c>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A637">
         <v>6443313</v>
       </c>
@@ -12502,7 +12557,7 @@
         <v>6360000</v>
       </c>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A638">
         <v>6473146</v>
       </c>
@@ -12510,7 +12565,7 @@
         <v>6370000</v>
       </c>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A639">
         <v>6477063</v>
       </c>
@@ -12518,7 +12573,7 @@
         <v>6380000</v>
       </c>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A640">
         <v>6481271</v>
       </c>
@@ -12526,7 +12581,7 @@
         <v>6390000</v>
       </c>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A641">
         <v>6484104</v>
       </c>
@@ -12534,7 +12589,7 @@
         <v>6400000</v>
       </c>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A642">
         <v>6503021</v>
       </c>
@@ -12542,7 +12597,7 @@
         <v>6410000</v>
       </c>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A643">
         <v>6502729</v>
       </c>
@@ -12550,7 +12605,7 @@
         <v>6420000</v>
       </c>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A644">
         <v>6520479</v>
       </c>
@@ -12558,7 +12613,7 @@
         <v>6430000</v>
       </c>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A645">
         <v>6522396</v>
       </c>
@@ -12566,7 +12621,7 @@
         <v>6440000</v>
       </c>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A646">
         <v>6556854</v>
       </c>
@@ -12574,7 +12629,7 @@
         <v>6450000</v>
       </c>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A647">
         <v>6541771</v>
       </c>
@@ -12582,7 +12637,7 @@
         <v>6460000</v>
       </c>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A648">
         <v>6561688</v>
       </c>
@@ -12590,7 +12645,7 @@
         <v>6470000</v>
       </c>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A649">
         <v>6565229</v>
       </c>
@@ -12598,7 +12653,7 @@
         <v>6480000</v>
       </c>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A650">
         <v>6620813</v>
       </c>
@@ -12606,7 +12661,7 @@
         <v>6490000</v>
       </c>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A651">
         <v>6589854</v>
       </c>
@@ -12614,7 +12669,7 @@
         <v>6500000</v>
       </c>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A652">
         <v>6602479</v>
       </c>
@@ -12622,7 +12677,7 @@
         <v>6510000</v>
       </c>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A653">
         <v>6604604</v>
       </c>
@@ -12630,7 +12685,7 @@
         <v>6520000</v>
       </c>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A654">
         <v>6633396</v>
       </c>
@@ -12638,7 +12693,7 @@
         <v>6530000</v>
       </c>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A655">
         <v>6624104</v>
       </c>
@@ -12646,7 +12701,7 @@
         <v>6540000</v>
       </c>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A656">
         <v>6640438</v>
       </c>
@@ -12654,7 +12709,7 @@
         <v>6550000</v>
       </c>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A657">
         <v>6643729</v>
       </c>
@@ -12662,7 +12717,7 @@
         <v>6560000</v>
       </c>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A658">
         <v>6659396</v>
       </c>
@@ -12670,7 +12725,7 @@
         <v>6570000</v>
       </c>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A659">
         <v>6663354</v>
       </c>
@@ -12678,7 +12733,7 @@
         <v>6580000</v>
       </c>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A660">
         <v>6679271</v>
       </c>
@@ -12686,7 +12741,7 @@
         <v>6590000</v>
       </c>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A661">
         <v>6691104</v>
       </c>
@@ -12694,7 +12749,7 @@
         <v>6600000</v>
       </c>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A662">
         <v>6707271</v>
       </c>
@@ -12702,7 +12757,7 @@
         <v>6610000</v>
       </c>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A663">
         <v>6703021</v>
       </c>
@@ -12710,7 +12765,7 @@
         <v>6620000</v>
       </c>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A664">
         <v>6717313</v>
       </c>
@@ -12718,7 +12773,7 @@
         <v>6630000</v>
       </c>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A665">
         <v>6756188</v>
       </c>
@@ -12726,7 +12781,7 @@
         <v>6640000</v>
       </c>
     </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A666">
         <v>6739938</v>
       </c>
@@ -12734,7 +12789,7 @@
         <v>6650000</v>
       </c>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A667">
         <v>6746604</v>
       </c>
@@ -12742,7 +12797,7 @@
         <v>6660000</v>
       </c>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A668">
         <v>6761563</v>
       </c>
@@ -12750,7 +12805,7 @@
         <v>6670000</v>
       </c>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A669">
         <v>6815854</v>
       </c>
@@ -12758,7 +12813,7 @@
         <v>6680000</v>
       </c>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A670">
         <v>6784688</v>
       </c>
@@ -12766,7 +12821,7 @@
         <v>6690000</v>
       </c>
     </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A671">
         <v>6787688</v>
       </c>
@@ -12774,7 +12829,7 @@
         <v>6700000</v>
       </c>
     </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A672">
         <v>6800104</v>
       </c>
@@ -12782,7 +12837,7 @@
         <v>6710000</v>
       </c>
     </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A673">
         <v>6804771</v>
       </c>
@@ -12790,7 +12845,7 @@
         <v>6720000</v>
       </c>
     </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A674">
         <v>6820313</v>
       </c>
@@ -12798,7 +12853,7 @@
         <v>6730000</v>
       </c>
     </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A675">
         <v>6825104</v>
       </c>
@@ -12806,7 +12861,7 @@
         <v>6740000</v>
       </c>
     </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A676">
         <v>6859188</v>
       </c>
@@ -12814,7 +12869,7 @@
         <v>6750000</v>
       </c>
     </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A677">
         <v>6843813</v>
       </c>
@@ -12822,7 +12877,7 @@
         <v>6760000</v>
       </c>
     </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A678">
         <v>6856979</v>
       </c>
@@ -12830,7 +12885,7 @@
         <v>6770000</v>
       </c>
     </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A679">
         <v>6863104</v>
       </c>
@@ -12838,7 +12893,7 @@
         <v>6780000</v>
       </c>
     </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A680">
         <v>6914229</v>
       </c>
@@ -12846,7 +12901,7 @@
         <v>6790000</v>
       </c>
     </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A681">
         <v>6885563</v>
       </c>
@@ -12854,7 +12909,7 @@
         <v>6800000</v>
       </c>
     </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A682">
         <v>6898188</v>
       </c>
@@ -12862,7 +12917,7 @@
         <v>6810000</v>
       </c>
     </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A683">
         <v>6908146</v>
       </c>
@@ -12870,7 +12925,7 @@
         <v>6820000</v>
       </c>
     </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A684">
         <v>6937063</v>
       </c>
@@ -12878,7 +12933,7 @@
         <v>6830000</v>
       </c>
     </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A685">
         <v>6923188</v>
       </c>
@@ -12886,7 +12941,7 @@
         <v>6840000</v>
       </c>
     </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A686">
         <v>6944229</v>
       </c>
@@ -12894,7 +12949,7 @@
         <v>6850000</v>
       </c>
     </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A687">
         <v>6946646</v>
       </c>
@@ -12902,7 +12957,7 @@
         <v>6860000</v>
       </c>
     </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A688">
         <v>6961771</v>
       </c>
@@ -12910,7 +12965,7 @@
         <v>6870000</v>
       </c>
     </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A689">
         <v>6964021</v>
       </c>
@@ -12918,7 +12973,7 @@
         <v>6880000</v>
       </c>
     </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A690">
         <v>6979396</v>
       </c>
@@ -12926,7 +12981,7 @@
         <v>6890000</v>
       </c>
     </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A691">
         <v>7002771</v>
       </c>
@@ -12934,7 +12989,7 @@
         <v>6900000</v>
       </c>
     </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A692">
         <v>7000354</v>
       </c>
@@ -12942,7 +12997,7 @@
         <v>6910000</v>
       </c>
     </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A693">
         <v>7003354</v>
       </c>
@@ -12950,7 +13005,7 @@
         <v>6920000</v>
       </c>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A694">
         <v>7052063</v>
       </c>
@@ -12958,7 +13013,7 @@
         <v>6930000</v>
       </c>
     </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A695">
         <v>7028396</v>
       </c>
@@ -12966,7 +13021,7 @@
         <v>6940000</v>
       </c>
     </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A696">
         <v>7044396</v>
       </c>
@@ -12974,7 +13029,7 @@
         <v>6950000</v>
       </c>
     </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A697">
         <v>7046479</v>
       </c>
@@ -12982,7 +13037,7 @@
         <v>6960000</v>
       </c>
     </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A698">
         <v>7075604</v>
       </c>
@@ -12990,7 +13045,7 @@
         <v>6970000</v>
       </c>
     </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A699">
         <v>7063688</v>
       </c>
@@ -12998,7 +13053,7 @@
         <v>6980000</v>
       </c>
     </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A700">
         <v>7083313</v>
       </c>
@@ -13006,7 +13061,7 @@
         <v>6990000</v>
       </c>
     </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A701">
         <v>7086271</v>
       </c>
@@ -13014,7 +13069,7 @@
         <v>7000000</v>
       </c>
     </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A702">
         <v>7099813</v>
       </c>
@@ -13022,7 +13077,7 @@
         <v>7010000</v>
       </c>
     </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A703">
         <v>7103021</v>
       </c>
@@ -13030,7 +13085,7 @@
         <v>7020000</v>
       </c>
     </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A704">
         <v>7121271</v>
       </c>
@@ -13038,7 +13093,7 @@
         <v>7030000</v>
       </c>
     </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A705">
         <v>7142854</v>
       </c>
@@ -13046,7 +13101,7 @@
         <v>7040000</v>
       </c>
     </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A706">
         <v>7143646</v>
       </c>
@@ -13054,7 +13109,7 @@
         <v>7050000</v>
       </c>
     </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A707">
         <v>7143563</v>
       </c>
@@ -13062,7 +13117,7 @@
         <v>7060000</v>
       </c>
     </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A708">
         <v>7191104</v>
       </c>
@@ -13070,7 +13125,7 @@
         <v>7070000</v>
       </c>
     </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A709">
         <v>7163854</v>
       </c>
@@ -13078,7 +13133,7 @@
         <v>7080000</v>
       </c>
     </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A710">
         <v>7182563</v>
       </c>
@@ -13086,7 +13141,7 @@
         <v>7090000</v>
       </c>
     </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A711">
         <v>7184354</v>
       </c>
@@ -13094,7 +13149,7 @@
         <v>7100000</v>
       </c>
     </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A712">
         <v>7218271</v>
       </c>
@@ -13102,7 +13157,7 @@
         <v>7110000</v>
       </c>
     </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A713">
         <v>7204104</v>
       </c>
@@ -13110,7 +13165,7 @@
         <v>7120000</v>
       </c>
     </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A714">
         <v>7218771</v>
       </c>
@@ -13118,7 +13173,7 @@
         <v>7130000</v>
       </c>
     </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A715">
         <v>7222979</v>
       </c>
@@ -13126,7 +13181,7 @@
         <v>7140000</v>
       </c>
     </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A716">
         <v>7240896</v>
       </c>
@@ -13134,7 +13189,7 @@
         <v>7150000</v>
       </c>
     </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A717">
         <v>7245146</v>
       </c>
@@ -13142,7 +13197,7 @@
         <v>7160000</v>
       </c>
     </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A718">
         <v>7268354</v>
       </c>
@@ -13150,7 +13205,7 @@
         <v>7170000</v>
       </c>
     </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A719">
         <v>7282021</v>
       </c>
@@ -13158,7 +13213,7 @@
         <v>7180000</v>
       </c>
     </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A720">
         <v>7284438</v>
       </c>
@@ -13166,7 +13221,7 @@
         <v>7190000</v>
       </c>
     </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A721">
         <v>7285438</v>
       </c>
@@ -13174,7 +13229,7 @@
         <v>7200000</v>
       </c>
     </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A722">
         <v>7329104</v>
       </c>
@@ -13182,7 +13237,7 @@
         <v>7210000</v>
       </c>
     </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A723">
         <v>7304146</v>
       </c>
@@ -13190,7 +13245,7 @@
         <v>7220000</v>
       </c>
     </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A724">
         <v>7323188</v>
       </c>
@@ -13198,7 +13253,7 @@
         <v>7230000</v>
       </c>
     </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A725">
         <v>7320854</v>
       </c>
@@ -13206,7 +13261,7 @@
         <v>7240000</v>
       </c>
     </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A726">
         <v>7355688</v>
       </c>
@@ -13214,7 +13269,7 @@
         <v>7250000</v>
       </c>
     </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A727">
         <v>7344688</v>
       </c>
@@ -13222,7 +13277,7 @@
         <v>7260000</v>
       </c>
     </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A728">
         <v>7361021</v>
       </c>
@@ -13230,7 +13285,7 @@
         <v>7270000</v>
       </c>
     </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A729">
         <v>7366479</v>
       </c>
@@ -13238,7 +13293,7 @@
         <v>7280000</v>
       </c>
     </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A730">
         <v>7383229</v>
       </c>
@@ -13246,7 +13301,7 @@
         <v>7290000</v>
       </c>
     </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A731">
         <v>7382729</v>
       </c>
@@ -13254,7 +13309,7 @@
         <v>7300000</v>
       </c>
     </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A732">
         <v>7408938</v>
       </c>
@@ -13262,7 +13317,7 @@
         <v>7310000</v>
       </c>
     </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A733">
         <v>7413479</v>
       </c>
@@ -13270,7 +13325,7 @@
         <v>7320000</v>
       </c>
     </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A734">
         <v>7418896</v>
       </c>
@@ -13278,7 +13333,7 @@
         <v>7330000</v>
       </c>
     </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A735">
         <v>7424688</v>
       </c>
@@ -13286,7 +13341,7 @@
         <v>7340000</v>
       </c>
     </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A736">
         <v>7469354</v>
       </c>
@@ -13294,7 +13349,7 @@
         <v>7350000</v>
       </c>
     </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A737">
         <v>7449104</v>
       </c>
@@ -13302,7 +13357,7 @@
         <v>7360000</v>
       </c>
     </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A738">
         <v>7459104</v>
       </c>
@@ -13310,7 +13365,7 @@
         <v>7370000</v>
       </c>
     </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A739">
         <v>7481438</v>
       </c>
@@ -13318,7 +13373,7 @@
         <v>7380000</v>
       </c>
     </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A740">
         <v>7479146</v>
       </c>
@@ -13326,7 +13381,7 @@
         <v>7390000</v>
       </c>
     </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A741">
         <v>7484688</v>
       </c>
@@ -13334,7 +13389,7 @@
         <v>7400000</v>
       </c>
     </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A742">
         <v>7503396</v>
       </c>
@@ -13342,7 +13397,7 @@
         <v>7410000</v>
       </c>
     </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A743">
         <v>7504729</v>
       </c>
@@ -13350,7 +13405,7 @@
         <v>7420000</v>
       </c>
     </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A744">
         <v>7518688</v>
       </c>
@@ -13358,7 +13413,7 @@
         <v>7430000</v>
       </c>
     </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A745">
         <v>7522604</v>
       </c>
@@ -13366,7 +13421,7 @@
         <v>7440000</v>
       </c>
     </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A746">
         <v>7552521</v>
       </c>
@@ -13374,7 +13429,7 @@
         <v>7450000</v>
       </c>
     </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A747">
         <v>7542604</v>
       </c>
@@ -13382,7 +13437,7 @@
         <v>7460000</v>
       </c>
     </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A748">
         <v>7560146</v>
       </c>
@@ -13390,7 +13445,7 @@
         <v>7470000</v>
       </c>
     </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A749">
         <v>7595396</v>
       </c>
@@ -13398,7 +13453,7 @@
         <v>7480000</v>
       </c>
     </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A750">
         <v>7583354</v>
       </c>
@@ -13406,7 +13461,7 @@
         <v>7490000</v>
       </c>
     </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A751">
         <v>7586688</v>
       </c>
@@ -13414,7 +13469,7 @@
         <v>7500000</v>
       </c>
     </row>
-    <row r="752" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A752">
         <v>7618271</v>
       </c>
@@ -13422,7 +13477,7 @@
         <v>7510000</v>
       </c>
     </row>
-    <row r="753" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A753">
         <v>7618979</v>
       </c>
@@ -13430,7 +13485,7 @@
         <v>7520000</v>
       </c>
     </row>
-    <row r="754" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A754">
         <v>7620938</v>
       </c>
@@ -13438,7 +13493,7 @@
         <v>7530000</v>
       </c>
     </row>
-    <row r="755" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A755">
         <v>7623896</v>
       </c>
@@ -13446,7 +13501,7 @@
         <v>7540000</v>
       </c>
     </row>
-    <row r="756" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A756">
         <v>7641396</v>
       </c>
@@ -13454,7 +13509,7 @@
         <v>7550000</v>
       </c>
     </row>
-    <row r="757" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A757">
         <v>7643688</v>
       </c>
@@ -13462,7 +13517,7 @@
         <v>7560000</v>
       </c>
     </row>
-    <row r="758" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A758">
         <v>7659354</v>
       </c>
@@ -13470,7 +13525,7 @@
         <v>7570000</v>
       </c>
     </row>
-    <row r="759" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A759">
         <v>7681521</v>
       </c>
@@ -13478,7 +13533,7 @@
         <v>7580000</v>
       </c>
     </row>
-    <row r="760" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A760">
         <v>7678521</v>
       </c>
@@ -13486,7 +13541,7 @@
         <v>7590000</v>
       </c>
     </row>
-    <row r="761" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A761">
         <v>7683646</v>
       </c>
@@ -13494,7 +13549,7 @@
         <v>7600000</v>
       </c>
     </row>
-    <row r="762" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A762">
         <v>7732396</v>
       </c>
@@ -13502,7 +13557,7 @@
         <v>7610000</v>
       </c>
     </row>
-    <row r="763" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A763">
         <v>7706063</v>
       </c>
@@ -13510,7 +13565,7 @@
         <v>7620000</v>
       </c>
     </row>
-    <row r="764" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A764">
         <v>7720896</v>
       </c>
@@ -13518,7 +13573,7 @@
         <v>7630000</v>
       </c>
     </row>
-    <row r="765" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A765">
         <v>7731146</v>
       </c>
@@ -13526,7 +13581,7 @@
         <v>7640000</v>
       </c>
     </row>
-    <row r="766" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A766">
         <v>7770354</v>
       </c>
@@ -13534,7 +13589,7 @@
         <v>7650000</v>
       </c>
     </row>
-    <row r="767" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A767">
         <v>7747271</v>
       </c>
@@ -13542,7 +13597,7 @@
         <v>7660000</v>
       </c>
     </row>
-    <row r="768" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A768">
         <v>7762896</v>
       </c>
@@ -13550,7 +13605,7 @@
         <v>7670000</v>
       </c>
     </row>
-    <row r="769" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A769">
         <v>7763646</v>
       </c>
@@ -13558,7 +13613,7 @@
         <v>7680000</v>
       </c>
     </row>
-    <row r="770" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A770">
         <v>7778688</v>
       </c>
@@ -13566,7 +13621,7 @@
         <v>7690000</v>
       </c>
     </row>
-    <row r="771" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A771">
         <v>7783979</v>
       </c>
@@ -13574,7 +13629,7 @@
         <v>7700000</v>
       </c>
     </row>
-    <row r="772" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A772">
         <v>7828729</v>
       </c>
@@ -13582,7 +13637,7 @@
         <v>7710000</v>
       </c>
     </row>
-    <row r="773" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A773">
         <v>7803688</v>
       </c>
@@ -13590,7 +13645,7 @@
         <v>7720000</v>
       </c>
     </row>
-    <row r="774" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A774">
         <v>7817688</v>
       </c>
@@ -13598,7 +13653,7 @@
         <v>7730000</v>
       </c>
     </row>
-    <row r="775" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A775">
         <v>7859604</v>
       </c>
@@ -13606,7 +13661,7 @@
         <v>7740000</v>
       </c>
     </row>
-    <row r="776" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A776">
         <v>7840729</v>
       </c>
@@ -13614,7 +13669,7 @@
         <v>7750000</v>
       </c>
     </row>
-    <row r="777" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A777">
         <v>7846354</v>
       </c>
@@ -13622,7 +13677,7 @@
         <v>7760000</v>
       </c>
     </row>
-    <row r="778" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A778">
         <v>7877646</v>
       </c>
@@ -13630,7 +13685,7 @@
         <v>7770000</v>
       </c>
     </row>
-    <row r="779" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A779">
         <v>7864229</v>
       </c>
@@ -13638,7 +13693,7 @@
         <v>7780000</v>
       </c>
     </row>
-    <row r="780" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A780">
         <v>7883229</v>
       </c>
@@ -13646,7 +13701,7 @@
         <v>7790000</v>
       </c>
     </row>
-    <row r="781" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A781">
         <v>7884313</v>
       </c>
@@ -13654,7 +13709,7 @@
         <v>7800000</v>
       </c>
     </row>
-    <row r="782" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A782">
         <v>7911146</v>
       </c>
@@ -13662,7 +13717,7 @@
         <v>7810000</v>
       </c>
     </row>
-    <row r="783" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A783">
         <v>7906854</v>
       </c>
@@ -13670,7 +13725,7 @@
         <v>7820000</v>
       </c>
     </row>
-    <row r="784" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A784">
         <v>7924563</v>
       </c>
@@ -13678,7 +13733,7 @@
         <v>7830000</v>
       </c>
     </row>
-    <row r="785" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A785">
         <v>7943938</v>
       </c>
@@ -13686,7 +13741,7 @@
         <v>7840000</v>
       </c>
     </row>
-    <row r="786" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A786">
         <v>7939729</v>
       </c>
@@ -13694,7 +13749,7 @@
         <v>7850000</v>
       </c>
     </row>
-    <row r="787" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A787">
         <v>7946313</v>
       </c>
@@ -13702,7 +13757,7 @@
         <v>7860000</v>
       </c>
     </row>
-    <row r="788" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A788">
         <v>7992229</v>
       </c>
@@ -13710,7 +13765,7 @@
         <v>7870000</v>
       </c>
     </row>
-    <row r="789" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A789">
         <v>7968479</v>
       </c>
@@ -13718,7 +13773,7 @@
         <v>7880000</v>
       </c>
     </row>
-    <row r="790" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A790">
         <v>7983688</v>
       </c>
@@ -13726,7 +13781,7 @@
         <v>7890000</v>
       </c>
     </row>
-    <row r="791" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A791">
         <v>8003979</v>
       </c>
@@ -13734,7 +13789,7 @@
         <v>7900000</v>
       </c>
     </row>
-    <row r="792" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A792">
         <v>8002104</v>
       </c>
@@ -13742,7 +13797,7 @@
         <v>7910000</v>
       </c>
     </row>
-    <row r="793" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A793">
         <v>8005021</v>
       </c>
@@ -13750,7 +13805,7 @@
         <v>7920000</v>
       </c>
     </row>
-    <row r="794" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A794">
         <v>8023354</v>
       </c>
@@ -13758,7 +13813,7 @@
         <v>7930000</v>
       </c>
     </row>
-    <row r="795" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A795">
         <v>8021896</v>
       </c>
@@ -13766,7 +13821,7 @@
         <v>7940000</v>
       </c>
     </row>
-    <row r="796" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A796">
         <v>8036813</v>
       </c>
@@ -13774,7 +13829,7 @@
         <v>7950000</v>
       </c>
     </row>
-    <row r="797" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A797">
         <v>8064438</v>
       </c>
@@ -13782,7 +13837,7 @@
         <v>7960000</v>
       </c>
     </row>
-    <row r="798" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A798">
         <v>8059604</v>
       </c>
@@ -13790,7 +13845,7 @@
         <v>7970000</v>
       </c>
     </row>
-    <row r="799" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A799">
         <v>8063688</v>
       </c>
@@ -13798,7 +13853,7 @@
         <v>7980000</v>
       </c>
     </row>
-    <row r="800" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A800">
         <v>8111646</v>
       </c>
@@ -13806,7 +13861,7 @@
         <v>7990000</v>
       </c>
     </row>
-    <row r="801" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A801">
         <v>8083229</v>
       </c>
@@ -13814,7 +13869,7 @@
         <v>8000000</v>
       </c>
     </row>
-    <row r="802" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A802">
         <v>8098354</v>
       </c>
@@ -13822,7 +13877,7 @@
         <v>8010000</v>
       </c>
     </row>
-    <row r="803" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A803">
         <v>8119813</v>
       </c>
@@ -13830,7 +13885,7 @@
         <v>8020000</v>
       </c>
     </row>
-    <row r="804" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A804">
         <v>8158271</v>
       </c>
@@ -13838,7 +13893,7 @@
         <v>8030000</v>
       </c>
     </row>
-    <row r="805" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A805">
         <v>8128938</v>
       </c>
@@ -13846,7 +13901,7 @@
         <v>8040000</v>
       </c>
     </row>
-    <row r="806" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A806">
         <v>8141021</v>
       </c>
@@ -13854,7 +13909,7 @@
         <v>8050000</v>
       </c>
     </row>
-    <row r="807" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A807">
         <v>8141479</v>
       </c>
@@ -13862,7 +13917,7 @@
         <v>8060000</v>
       </c>
     </row>
-    <row r="808" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A808">
         <v>8163563</v>
       </c>
@@ -13870,7 +13925,7 @@
         <v>8070000</v>
       </c>
     </row>
-    <row r="809" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A809">
         <v>8171396</v>
       </c>
@@ -13878,7 +13933,7 @@
         <v>8080000</v>
       </c>
     </row>
-    <row r="810" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A810">
         <v>8191979</v>
       </c>
@@ -13886,7 +13941,7 @@
         <v>8090000</v>
       </c>
     </row>
-    <row r="811" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A811">
         <v>8184188</v>
       </c>
@@ -13894,7 +13949,7 @@
         <v>8100000</v>
       </c>
     </row>
-    <row r="812" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A812">
         <v>8198271</v>
       </c>
@@ -13902,7 +13957,7 @@
         <v>8110000</v>
       </c>
     </row>
-    <row r="813" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A813">
         <v>8235479</v>
       </c>
@@ -13910,7 +13965,7 @@
         <v>8120000</v>
       </c>
     </row>
-    <row r="814" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A814">
         <v>8227229</v>
       </c>
@@ -13918,7 +13973,7 @@
         <v>8130000</v>
       </c>
     </row>
-    <row r="815" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A815">
         <v>8224563</v>
       </c>
@@ -13926,7 +13981,7 @@
         <v>8140000</v>
       </c>
     </row>
-    <row r="816" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A816">
         <v>8261229</v>
       </c>
@@ -13934,7 +13989,7 @@
         <v>8150000</v>
       </c>
     </row>
-    <row r="817" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A817">
         <v>8246438</v>
       </c>
@@ -13942,7 +13997,7 @@
         <v>8160000</v>
       </c>
     </row>
-    <row r="818" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A818">
         <v>8259646</v>
       </c>
@@ -13950,7 +14005,7 @@
         <v>8170000</v>
       </c>
     </row>
-    <row r="819" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A819">
         <v>8265313</v>
       </c>
@@ -13958,7 +14013,7 @@
         <v>8180000</v>
       </c>
     </row>
-    <row r="820" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A820">
         <v>8282479</v>
       </c>
@@ -13966,7 +14021,7 @@
         <v>8190000</v>
       </c>
     </row>
-    <row r="821" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A821">
         <v>8286354</v>
       </c>
@@ -13974,7 +14029,7 @@
         <v>8200000</v>
       </c>
     </row>
-    <row r="822" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A822">
         <v>8318646</v>
       </c>
@@ -13982,7 +14037,7 @@
         <v>8210000</v>
       </c>
     </row>
-    <row r="823" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A823">
         <v>8303979</v>
       </c>
@@ -13990,7 +14045,7 @@
         <v>8220000</v>
       </c>
     </row>
-    <row r="824" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A824">
         <v>8318563</v>
       </c>
@@ -13998,7 +14053,7 @@
         <v>8230000</v>
       </c>
     </row>
-    <row r="825" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A825">
         <v>8354313</v>
       </c>
@@ -14006,7 +14061,7 @@
         <v>8240000</v>
       </c>
     </row>
-    <row r="826" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A826">
         <v>8345313</v>
       </c>
@@ -14014,7 +14069,7 @@
         <v>8250000</v>
       </c>
     </row>
-    <row r="827" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A827">
         <v>8342854</v>
       </c>
@@ -14022,7 +14077,7 @@
         <v>8260000</v>
       </c>
     </row>
-    <row r="828" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A828">
         <v>8377563</v>
       </c>
@@ -14030,7 +14085,7 @@
         <v>8270000</v>
       </c>
     </row>
-    <row r="829" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A829">
         <v>8363188</v>
       </c>
@@ -14038,7 +14093,7 @@
         <v>8280000</v>
       </c>
     </row>
-    <row r="830" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A830">
         <v>8379188</v>
       </c>
@@ -14046,7 +14101,7 @@
         <v>8290000</v>
       </c>
     </row>
-    <row r="831" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A831">
         <v>8383063</v>
       </c>
@@ -14054,7 +14109,7 @@
         <v>8300000</v>
       </c>
     </row>
-    <row r="832" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A832">
         <v>8401021</v>
       </c>
@@ -14062,7 +14117,7 @@
         <v>8310000</v>
       </c>
     </row>
-    <row r="833" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A833">
         <v>8402896</v>
       </c>
@@ -14070,7 +14125,7 @@
         <v>8320000</v>
       </c>
     </row>
-    <row r="834" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A834">
         <v>8434896</v>
       </c>
@@ -14078,7 +14133,7 @@
         <v>8330000</v>
       </c>
     </row>
-    <row r="835" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A835">
         <v>8422063</v>
       </c>
@@ -14086,7 +14141,7 @@
         <v>8340000</v>
       </c>
     </row>
-    <row r="836" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A836">
         <v>8441646</v>
       </c>
@@ -14094,7 +14149,7 @@
         <v>8350000</v>
       </c>
     </row>
-    <row r="837" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A837">
         <v>8472938</v>
       </c>
@@ -14102,7 +14157,7 @@
         <v>8360000</v>
       </c>
     </row>
-    <row r="838" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A838">
         <v>8462188</v>
       </c>
@@ -14110,7 +14165,7 @@
         <v>8370000</v>
       </c>
     </row>
-    <row r="839" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A839">
         <v>8470646</v>
       </c>
@@ -14118,7 +14173,7 @@
         <v>8380000</v>
       </c>
     </row>
-    <row r="840" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A840">
         <v>8490896</v>
       </c>
@@ -14126,7 +14181,7 @@
         <v>8390000</v>
       </c>
     </row>
-    <row r="841" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A841">
         <v>8487354</v>
       </c>
@@ -14134,7 +14189,7 @@
         <v>8400000</v>
       </c>
     </row>
-    <row r="842" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A842">
         <v>8500438</v>
       </c>
@@ -14142,7 +14197,7 @@
         <v>8410000</v>
       </c>
     </row>
-    <row r="843" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A843">
         <v>8505563</v>
       </c>
@@ -14150,7 +14205,7 @@
         <v>8420000</v>
       </c>
     </row>
-    <row r="844" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A844">
         <v>8519688</v>
       </c>
@@ -14158,7 +14213,7 @@
         <v>8430000</v>
       </c>
     </row>
-    <row r="845" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A845">
         <v>8530021</v>
       </c>
@@ -14166,7 +14221,7 @@
         <v>8440000</v>
       </c>
     </row>
-    <row r="846" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A846">
         <v>8553313</v>
       </c>
@@ -14174,7 +14229,7 @@
         <v>8450000</v>
       </c>
     </row>
-    <row r="847" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A847">
         <v>8545521</v>
       </c>
@@ -14182,7 +14237,7 @@
         <v>8460000</v>
       </c>
     </row>
-    <row r="848" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A848">
         <v>8595729</v>
       </c>
@@ -14190,7 +14245,7 @@
         <v>8470000</v>
       </c>
     </row>
-    <row r="849" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A849">
         <v>8569813</v>
       </c>
@@ -14198,7 +14253,7 @@
         <v>8480000</v>
       </c>
     </row>
-    <row r="850" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A850">
         <v>8587188</v>
       </c>
@@ -14206,7 +14261,7 @@
         <v>8490000</v>
       </c>
     </row>
-    <row r="851" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A851">
         <v>8604521</v>
       </c>
@@ -14214,7 +14269,7 @@
         <v>8500000</v>
       </c>
     </row>
-    <row r="852" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A852">
         <v>8604729</v>
       </c>
@@ -14222,7 +14277,7 @@
         <v>8510000</v>
       </c>
     </row>
-    <row r="853" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A853">
         <v>8604854</v>
       </c>
@@ -14230,7 +14285,7 @@
         <v>8520000</v>
       </c>
     </row>
-    <row r="854" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A854">
         <v>8618354</v>
       </c>
@@ -14238,7 +14293,7 @@
         <v>8530000</v>
       </c>
     </row>
-    <row r="855" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A855">
         <v>8624813</v>
       </c>
@@ -14246,7 +14301,7 @@
         <v>8540000</v>
       </c>
     </row>
-    <row r="856" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A856">
         <v>8640646</v>
       </c>
@@ -14254,7 +14309,7 @@
         <v>8550000</v>
       </c>
     </row>
-    <row r="857" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A857">
         <v>8658771</v>
       </c>
@@ -14262,7 +14317,7 @@
         <v>8560000</v>
       </c>
     </row>
-    <row r="858" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A858">
         <v>8658021</v>
       </c>
@@ -14270,7 +14325,7 @@
         <v>8570000</v>
       </c>
     </row>
-    <row r="859" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A859">
         <v>8664604</v>
       </c>
@@ -14278,7 +14333,7 @@
         <v>8580000</v>
       </c>
     </row>
-    <row r="860" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A860">
         <v>8710979</v>
       </c>
@@ -14286,7 +14341,7 @@
         <v>8590000</v>
       </c>
     </row>
-    <row r="861" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A861">
         <v>8686979</v>
       </c>
@@ -14294,7 +14349,7 @@
         <v>8600000</v>
       </c>
     </row>
-    <row r="862" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A862">
         <v>8699979</v>
       </c>
@@ -14302,7 +14357,7 @@
         <v>8610000</v>
       </c>
     </row>
-    <row r="863" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A863">
         <v>8722604</v>
       </c>
@@ -14310,7 +14365,7 @@
         <v>8620000</v>
       </c>
     </row>
-    <row r="864" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A864">
         <v>8720354</v>
       </c>
@@ -14318,7 +14373,7 @@
         <v>8630000</v>
       </c>
     </row>
-    <row r="865" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A865">
         <v>8722104</v>
       </c>
@@ -14326,7 +14381,7 @@
         <v>8640000</v>
       </c>
     </row>
-    <row r="866" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A866">
         <v>8738646</v>
       </c>
@@ -14334,7 +14389,7 @@
         <v>8650000</v>
       </c>
     </row>
-    <row r="867" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A867">
         <v>8742979</v>
       </c>
@@ -14342,7 +14397,7 @@
         <v>8660000</v>
       </c>
     </row>
-    <row r="868" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A868">
         <v>8768479</v>
       </c>
@@ -14350,7 +14405,7 @@
         <v>8670000</v>
       </c>
     </row>
-    <row r="869" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A869">
         <v>8776146</v>
       </c>
@@ -14358,7 +14413,7 @@
         <v>8680000</v>
       </c>
     </row>
-    <row r="870" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A870">
         <v>8781771</v>
       </c>
@@ -14366,7 +14421,7 @@
         <v>8690000</v>
       </c>
     </row>
-    <row r="871" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A871">
         <v>8782438</v>
       </c>
@@ -14374,7 +14429,7 @@
         <v>8700000</v>
       </c>
     </row>
-    <row r="872" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A872">
         <v>8826229</v>
       </c>
@@ -14382,7 +14437,7 @@
         <v>8710000</v>
       </c>
     </row>
-    <row r="873" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A873">
         <v>8803021</v>
       </c>
@@ -14390,7 +14445,7 @@
         <v>8720000</v>
       </c>
     </row>
-    <row r="874" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A874">
         <v>8836729</v>
       </c>
@@ -14398,7 +14453,7 @@
         <v>8730000</v>
       </c>
     </row>
-    <row r="875" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A875">
         <v>8827021</v>
       </c>
@@ -14406,7 +14461,7 @@
         <v>8740000</v>
       </c>
     </row>
-    <row r="876" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A876">
         <v>8839729</v>
       </c>
@@ -14414,7 +14469,7 @@
         <v>8750000</v>
       </c>
     </row>
-    <row r="877" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A877">
         <v>8843646</v>
       </c>
@@ -14422,7 +14477,7 @@
         <v>8760000</v>
       </c>
     </row>
-    <row r="878" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A878">
         <v>8860479</v>
       </c>
@@ -14430,7 +14485,7 @@
         <v>8770000</v>
       </c>
     </row>
-    <row r="879" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A879">
         <v>8863354</v>
       </c>
@@ -14438,7 +14493,7 @@
         <v>8780000</v>
       </c>
     </row>
-    <row r="880" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A880">
         <v>8901854</v>
       </c>
@@ -14446,7 +14501,7 @@
         <v>8790000</v>
       </c>
     </row>
-    <row r="881" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A881">
         <v>8900271</v>
       </c>
@@ -14454,7 +14509,7 @@
         <v>8800000</v>
       </c>
     </row>
-    <row r="882" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A882">
         <v>8902021</v>
       </c>
@@ -14462,7 +14517,7 @@
         <v>8810000</v>
       </c>
     </row>
-    <row r="883" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A883">
         <v>8937854</v>
       </c>
@@ -14470,7 +14525,7 @@
         <v>8820000</v>
       </c>
     </row>
-    <row r="884" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A884">
         <v>8923896</v>
       </c>
@@ -14478,7 +14533,7 @@
         <v>8830000</v>
       </c>
     </row>
-    <row r="885" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A885">
         <v>8933438</v>
       </c>
@@ -14486,7 +14541,7 @@
         <v>8840000</v>
       </c>
     </row>
-    <row r="886" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A886">
         <v>8951604</v>
       </c>
@@ -14494,7 +14549,7 @@
         <v>8850000</v>
       </c>
     </row>
-    <row r="887" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A887">
         <v>8945396</v>
       </c>
@@ -14502,7 +14557,7 @@
         <v>8860000</v>
       </c>
     </row>
-    <row r="888" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A888">
         <v>8957563</v>
       </c>
@@ -14510,7 +14565,7 @@
         <v>8870000</v>
       </c>
     </row>
-    <row r="889" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A889">
         <v>8964938</v>
       </c>
@@ -14518,7 +14573,7 @@
         <v>8880000</v>
       </c>
     </row>
-    <row r="890" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A890">
         <v>8979229</v>
       </c>
@@ -14526,7 +14581,7 @@
         <v>8890000</v>
       </c>
     </row>
-    <row r="891" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A891">
         <v>9013063</v>
       </c>
@@ -14534,7 +14589,7 @@
         <v>8900000</v>
       </c>
     </row>
-    <row r="892" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A892">
         <v>9000896</v>
       </c>
@@ -14542,7 +14597,7 @@
         <v>8910000</v>
       </c>
     </row>
-    <row r="893" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A893">
         <v>9005646</v>
       </c>
@@ -14550,7 +14605,7 @@
         <v>8920000</v>
       </c>
     </row>
-    <row r="894" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A894">
         <v>9055729</v>
       </c>
@@ -14558,7 +14613,7 @@
         <v>8930000</v>
       </c>
     </row>
-    <row r="895" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A895">
         <v>9026521</v>
       </c>
@@ -14566,7 +14621,7 @@
         <v>8940000</v>
       </c>
     </row>
-    <row r="896" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A896">
         <v>9041813</v>
       </c>
@@ -14574,7 +14629,7 @@
         <v>8950000</v>
       </c>
     </row>
-    <row r="897" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A897">
         <v>9063396</v>
       </c>
@@ -14582,7 +14637,7 @@
         <v>8960000</v>
       </c>
     </row>
-    <row r="898" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A898">
         <v>9060813</v>
       </c>
@@ -14590,7 +14645,7 @@
         <v>8970000</v>
       </c>
     </row>
-    <row r="899" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A899">
         <v>9063063</v>
       </c>
@@ -14598,7 +14653,7 @@
         <v>8980000</v>
       </c>
     </row>
-    <row r="900" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A900">
         <v>9081646</v>
       </c>
@@ -14606,7 +14661,7 @@
         <v>8990000</v>
       </c>
     </row>
-    <row r="901" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A901">
         <v>9084563</v>
       </c>
@@ -14614,7 +14669,7 @@
         <v>9000000</v>
       </c>
     </row>
-    <row r="902" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A902">
         <v>9116646</v>
       </c>
@@ -14622,7 +14677,7 @@
         <v>9010000</v>
       </c>
     </row>
-    <row r="903" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A903">
         <v>9106063</v>
       </c>
@@ -14630,7 +14685,7 @@
         <v>9020000</v>
       </c>
     </row>
-    <row r="904" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A904">
         <v>9116938</v>
       </c>
@@ -14638,7 +14693,7 @@
         <v>9030000</v>
       </c>
     </row>
-    <row r="905" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A905">
         <v>9154354</v>
       </c>
@@ -14646,7 +14701,7 @@
         <v>9040000</v>
       </c>
     </row>
-    <row r="906" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A906">
         <v>9144313</v>
       </c>
@@ -14654,7 +14709,7 @@
         <v>9050000</v>
       </c>
     </row>
-    <row r="907" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A907">
         <v>9145146</v>
       </c>
@@ -14662,7 +14717,7 @@
         <v>9060000</v>
       </c>
     </row>
-    <row r="908" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A908">
         <v>9175479</v>
       </c>
@@ -14670,7 +14725,7 @@
         <v>9070000</v>
       </c>
     </row>
-    <row r="909" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A909">
         <v>9164604</v>
       </c>
@@ -14678,7 +14733,7 @@
         <v>9080000</v>
       </c>
     </row>
-    <row r="910" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A910">
         <v>9180896</v>
       </c>
@@ -14686,7 +14741,7 @@
         <v>9090000</v>
       </c>
     </row>
-    <row r="911" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A911">
         <v>9185771</v>
       </c>
@@ -14694,7 +14749,7 @@
         <v>9100000</v>
       </c>
     </row>
-    <row r="912" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A912">
         <v>9200813</v>
       </c>
@@ -14702,7 +14757,7 @@
         <v>9110000</v>
       </c>
     </row>
-    <row r="913" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A913">
         <v>9221021</v>
       </c>
@@ -14710,7 +14765,7 @@
         <v>9120000</v>
       </c>
     </row>
-    <row r="914" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A914">
         <v>9223938</v>
       </c>
@@ -14718,7 +14773,7 @@
         <v>9130000</v>
       </c>
     </row>
-    <row r="915" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A915">
         <v>9229396</v>
       </c>
@@ -14726,7 +14781,7 @@
         <v>9140000</v>
       </c>
     </row>
-    <row r="916" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A916">
         <v>9271563</v>
       </c>
@@ -14734,7 +14789,7 @@
         <v>9150000</v>
       </c>
     </row>
-    <row r="917" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A917">
         <v>9246521</v>
       </c>
@@ -14742,7 +14797,7 @@
         <v>9160000</v>
       </c>
     </row>
-    <row r="918" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A918">
         <v>9269771</v>
       </c>
@@ -14750,7 +14805,7 @@
         <v>9170000</v>
       </c>
     </row>
-    <row r="919" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A919">
         <v>9307813</v>
       </c>
@@ -14758,7 +14813,7 @@
         <v>9180000</v>
       </c>
     </row>
-    <row r="920" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A920">
         <v>9283563</v>
       </c>
@@ -14766,7 +14821,7 @@
         <v>9190000</v>
       </c>
     </row>
-    <row r="921" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A921">
         <v>9285979</v>
       </c>
@@ -14774,7 +14829,7 @@
         <v>9200000</v>
       </c>
     </row>
-    <row r="922" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A922">
         <v>9303854</v>
       </c>
@@ -14782,7 +14837,7 @@
         <v>9210000</v>
       </c>
     </row>
-    <row r="923" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A923">
         <v>9304979</v>
       </c>
@@ -14790,7 +14845,7 @@
         <v>9220000</v>
       </c>
     </row>
-    <row r="924" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A924">
         <v>9334854</v>
       </c>
@@ -14798,7 +14853,7 @@
         <v>9230000</v>
       </c>
     </row>
-    <row r="925" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A925">
         <v>9328313</v>
       </c>
@@ -14806,7 +14861,7 @@
         <v>9240000</v>
       </c>
     </row>
-    <row r="926" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A926">
         <v>9341313</v>
       </c>
@@ -14814,7 +14869,7 @@
         <v>9250000</v>
       </c>
     </row>
-    <row r="927" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A927">
         <v>9374313</v>
       </c>
@@ -14822,7 +14877,7 @@
         <v>9260000</v>
       </c>
     </row>
-    <row r="928" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A928">
         <v>9361063</v>
       </c>
@@ -14830,7 +14885,7 @@
         <v>9270000</v>
       </c>
     </row>
-    <row r="929" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A929">
         <v>9381271</v>
       </c>
@@ -14838,7 +14893,7 @@
         <v>9280000</v>
       </c>
     </row>
-    <row r="930" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A930">
         <v>9383938</v>
       </c>
@@ -14846,7 +14901,7 @@
         <v>9290000</v>
       </c>
     </row>
-    <row r="931" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A931">
         <v>9383229</v>
       </c>
@@ -14854,7 +14909,7 @@
         <v>9300000</v>
       </c>
     </row>
-    <row r="932" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A932">
         <v>9402396</v>
       </c>
@@ -14862,7 +14917,7 @@
         <v>9310000</v>
       </c>
     </row>
-    <row r="933" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A933">
         <v>9405063</v>
       </c>
@@ -14870,7 +14925,7 @@
         <v>9320000</v>
       </c>
     </row>
-    <row r="934" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A934">
         <v>9420646</v>
       </c>
@@ -14878,7 +14933,7 @@
         <v>9330000</v>
       </c>
     </row>
-    <row r="935" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A935">
         <v>9434188</v>
       </c>
@@ -14886,7 +14941,7 @@
         <v>9340000</v>
       </c>
     </row>
-    <row r="936" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A936">
         <v>9438604</v>
       </c>
@@ -14894,7 +14949,7 @@
         <v>9350000</v>
       </c>
     </row>
-    <row r="937" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A937">
         <v>9474979</v>
       </c>
@@ -14902,7 +14957,7 @@
         <v>9360000</v>
       </c>
     </row>
-    <row r="938" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A938">
         <v>9459938</v>
       </c>
@@ -14910,7 +14965,7 @@
         <v>9370000</v>
       </c>
     </row>
-    <row r="939" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A939">
         <v>9461688</v>
       </c>
@@ -14918,7 +14973,7 @@
         <v>9380000</v>
       </c>
     </row>
-    <row r="940" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A940">
         <v>9495188</v>
       </c>
@@ -14926,7 +14981,7 @@
         <v>9390000</v>
       </c>
     </row>
-    <row r="941" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A941">
         <v>9482354</v>
       </c>
@@ -14934,7 +14989,7 @@
         <v>9400000</v>
       </c>
     </row>
-    <row r="942" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A942">
         <v>9500688</v>
       </c>
@@ -14942,7 +14997,7 @@
         <v>9410000</v>
       </c>
     </row>
-    <row r="943" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A943">
         <v>9502146</v>
       </c>
@@ -14950,7 +15005,7 @@
         <v>9420000</v>
       </c>
     </row>
-    <row r="944" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A944">
         <v>9520729</v>
       </c>
@@ -14958,7 +15013,7 @@
         <v>9430000</v>
       </c>
     </row>
-    <row r="945" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A945">
         <v>9543146</v>
       </c>
@@ -14966,7 +15021,7 @@
         <v>9440000</v>
       </c>
     </row>
-    <row r="946" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A946">
         <v>9539729</v>
       </c>
@@ -14974,7 +15029,7 @@
         <v>9450000</v>
       </c>
     </row>
-    <row r="947" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A947">
         <v>9542021</v>
       </c>
@@ -14982,7 +15037,7 @@
         <v>9460000</v>
       </c>
     </row>
-    <row r="948" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A948">
         <v>9598771</v>
       </c>
@@ -14990,7 +15045,7 @@
         <v>9470000</v>
       </c>
     </row>
-    <row r="949" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A949">
         <v>9569938</v>
       </c>
@@ -14998,7 +15053,7 @@
         <v>9480000</v>
       </c>
     </row>
-    <row r="950" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A950">
         <v>9603021</v>
       </c>
@@ -15006,7 +15061,7 @@
         <v>9490000</v>
       </c>
     </row>
-    <row r="951" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A951">
         <v>9583521</v>
       </c>
@@ -15014,7 +15069,7 @@
         <v>9500000</v>
       </c>
     </row>
-    <row r="952" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A952">
         <v>9601646</v>
       </c>
@@ -15022,7 +15077,7 @@
         <v>9510000</v>
       </c>
     </row>
-    <row r="953" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A953">
         <v>9603563</v>
       </c>
@@ -15030,7 +15085,7 @@
         <v>9520000</v>
       </c>
     </row>
-    <row r="954" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A954">
         <v>9622813</v>
       </c>
@@ -15038,7 +15093,7 @@
         <v>9530000</v>
       </c>
     </row>
-    <row r="955" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A955">
         <v>9624729</v>
       </c>
@@ -15046,7 +15101,7 @@
         <v>9540000</v>
       </c>
     </row>
-    <row r="956" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A956">
         <v>9653729</v>
       </c>
@@ -15054,7 +15109,7 @@
         <v>9550000</v>
       </c>
     </row>
-    <row r="957" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A957">
         <v>9644563</v>
       </c>
@@ -15062,7 +15117,7 @@
         <v>9560000</v>
       </c>
     </row>
-    <row r="958" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A958">
         <v>9692646</v>
       </c>
@@ -15070,7 +15125,7 @@
         <v>9570000</v>
       </c>
     </row>
-    <row r="959" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A959">
         <v>9665188</v>
       </c>
@@ -15078,7 +15133,7 @@
         <v>9580000</v>
       </c>
     </row>
-    <row r="960" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A960">
         <v>9680521</v>
       </c>
@@ -15086,7 +15141,7 @@
         <v>9590000</v>
       </c>
     </row>
-    <row r="961" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A961">
         <v>9700771</v>
       </c>
@@ -15094,7 +15149,7 @@
         <v>9600000</v>
       </c>
     </row>
-    <row r="962" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A962">
         <v>9702854</v>
       </c>
@@ -15102,7 +15157,7 @@
         <v>9610000</v>
       </c>
     </row>
-    <row r="963" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A963">
         <v>9711063</v>
       </c>
@@ -15110,7 +15165,7 @@
         <v>9620000</v>
       </c>
     </row>
-    <row r="964" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A964">
         <v>9721521</v>
       </c>
@@ -15118,7 +15173,7 @@
         <v>9630000</v>
       </c>
     </row>
-    <row r="965" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A965">
         <v>9721896</v>
       </c>
@@ -15126,7 +15181,7 @@
         <v>9640000</v>
       </c>
     </row>
-    <row r="966" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A966">
         <v>9755313</v>
       </c>
@@ -15134,7 +15189,7 @@
         <v>9650000</v>
       </c>
     </row>
-    <row r="967" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A967">
         <v>9746354</v>
       </c>
@@ -15142,7 +15197,7 @@
         <v>9660000</v>
       </c>
     </row>
-    <row r="968" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A968">
         <v>9759896</v>
       </c>
@@ -15150,7 +15205,7 @@
         <v>9670000</v>
       </c>
     </row>
-    <row r="969" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A969">
         <v>9792729</v>
       </c>
@@ -15158,7 +15213,7 @@
         <v>9680000</v>
       </c>
     </row>
-    <row r="970" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A970">
         <v>9785479</v>
       </c>
@@ -15166,7 +15221,7 @@
         <v>9690000</v>
       </c>
     </row>
-    <row r="971" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A971">
         <v>9803521</v>
       </c>
@@ -15174,7 +15229,7 @@
         <v>9700000</v>
       </c>
     </row>
-    <row r="972" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A972">
         <v>9801021</v>
       </c>
@@ -15182,7 +15237,7 @@
         <v>9710000</v>
       </c>
     </row>
-    <row r="973" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A973">
         <v>9803188</v>
       </c>
@@ -15190,7 +15245,7 @@
         <v>9720000</v>
       </c>
     </row>
-    <row r="974" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A974">
         <v>9818688</v>
       </c>
@@ -15198,7 +15253,7 @@
         <v>9730000</v>
       </c>
     </row>
-    <row r="975" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A975">
         <v>9820063</v>
       </c>
@@ -15206,7 +15261,7 @@
         <v>9740000</v>
       </c>
     </row>
-    <row r="976" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A976">
         <v>9859521</v>
       </c>
@@ -15214,7 +15269,7 @@
         <v>9750000</v>
       </c>
     </row>
-    <row r="977" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A977">
         <v>9844104</v>
       </c>
@@ -15222,7 +15277,7 @@
         <v>9760000</v>
       </c>
     </row>
-    <row r="978" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A978">
         <v>9858646</v>
       </c>
@@ -15230,7 +15285,7 @@
         <v>9770000</v>
       </c>
     </row>
-    <row r="979" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A979">
         <v>9895646</v>
       </c>
@@ -15238,7 +15293,7 @@
         <v>9780000</v>
       </c>
     </row>
-    <row r="980" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A980">
         <v>9886313</v>
       </c>
@@ -15246,7 +15301,7 @@
         <v>9790000</v>
       </c>
     </row>
-    <row r="981" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A981">
         <v>9903271</v>
       </c>
@@ -15254,7 +15309,7 @@
         <v>9800000</v>
       </c>
     </row>
-    <row r="982" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A982">
         <v>9903063</v>
       </c>
@@ -15262,7 +15317,7 @@
         <v>9810000</v>
       </c>
     </row>
-    <row r="983" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A983">
         <v>9906479</v>
       </c>
@@ -15270,7 +15325,7 @@
         <v>9820000</v>
       </c>
     </row>
-    <row r="984" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A984">
         <v>9922979</v>
       </c>
@@ -15278,7 +15333,7 @@
         <v>9830000</v>
       </c>
     </row>
-    <row r="985" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A985">
         <v>9924104</v>
       </c>
@@ -15286,7 +15341,7 @@
         <v>9840000</v>
       </c>
     </row>
-    <row r="986" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A986">
         <v>9959646</v>
       </c>
@@ -15294,7 +15349,7 @@
         <v>9850000</v>
       </c>
     </row>
-    <row r="987" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A987">
         <v>9946271</v>
       </c>
@@ -15302,7 +15357,7 @@
         <v>9860000</v>
       </c>
     </row>
-    <row r="988" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A988">
         <v>9958938</v>
       </c>
@@ -15310,7 +15365,7 @@
         <v>9870000</v>
       </c>
     </row>
-    <row r="989" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A989">
         <v>9998021</v>
       </c>
@@ -15318,7 +15373,7 @@
         <v>9880000</v>
       </c>
     </row>
-    <row r="990" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A990">
         <v>9980938</v>
       </c>
@@ -15326,7 +15381,7 @@
         <v>9890000</v>
       </c>
     </row>
-    <row r="991" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A991">
         <v>10005271</v>
       </c>
@@ -15334,7 +15389,7 @@
         <v>9900000</v>
       </c>
     </row>
-    <row r="992" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A992">
         <v>10002688</v>
       </c>
@@ -15342,7 +15397,7 @@
         <v>9910000</v>
       </c>
     </row>
-    <row r="993" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A993">
         <v>10030479</v>
       </c>
@@ -15350,7 +15405,7 @@
         <v>9920000</v>
       </c>
     </row>
-    <row r="994" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A994">
         <v>10026021</v>
       </c>
@@ -15358,7 +15413,7 @@
         <v>9930000</v>
       </c>
     </row>
-    <row r="995" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A995">
         <v>10029438</v>
       </c>
@@ -15366,7 +15421,7 @@
         <v>9940000</v>
       </c>
     </row>
-    <row r="996" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A996">
         <v>10075146</v>
       </c>
@@ -15374,7 +15429,7 @@
         <v>9950000</v>
       </c>
     </row>
-    <row r="997" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A997">
         <v>10045438</v>
       </c>
@@ -15382,7 +15437,7 @@
         <v>9960000</v>
       </c>
     </row>
-    <row r="998" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A998">
         <v>10062646</v>
       </c>
@@ -15390,7 +15445,7 @@
         <v>9970000</v>
       </c>
     </row>
-    <row r="999" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A999">
         <v>10098271</v>
       </c>
@@ -15398,7 +15453,7 @@
         <v>9980000</v>
       </c>
     </row>
-    <row r="1000" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1000">
         <v>10084521</v>
       </c>
@@ -15413,24 +15468,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
